--- a/result/chenting_20151124_noon_2.mat0.xlsx
+++ b/result/chenting_20151124_noon_2.mat0.xlsx
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4292879501978557</v>
+        <v>5.101840416590373</v>
       </c>
       <c r="C2" t="n">
-        <v>158090.3072916667</v>
+        <v>13660.86263020833</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4717514924705029</v>
+        <v>3.876099775234858</v>
       </c>
       <c r="E2" t="n">
-        <v>158090.34375</v>
+        <v>13659.63671875</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2989397197961807</v>
+        <v>24.03861745198568</v>
       </c>
       <c r="C3" t="n">
-        <v>154569.140625</v>
+        <v>13412.19889322917</v>
       </c>
       <c r="D3" t="n">
-        <v>0.240829403201739</v>
+        <v>23.76672077178955</v>
       </c>
       <c r="E3" t="n">
-        <v>154569.0859375</v>
+        <v>13411.92692057292</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3098455121119817</v>
+        <v>13.61346371968587</v>
       </c>
       <c r="C4" t="n">
-        <v>151124.703125</v>
+        <v>13140.2431640625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3384320735931396</v>
+        <v>13.27632029851278</v>
       </c>
       <c r="E4" t="n">
-        <v>151124.7317708333</v>
+        <v>13139.90633138021</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2518921072284381</v>
+        <v>6.000542322794597</v>
       </c>
       <c r="C5" t="n">
-        <v>147758.9427083333</v>
+        <v>12876.68098958333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2407615920528769</v>
+        <v>6.660383423169454</v>
       </c>
       <c r="E5" t="n">
-        <v>147758.9296875</v>
+        <v>12877.34098307292</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3338615049918492</v>
+        <v>3.66269318262736</v>
       </c>
       <c r="C6" t="n">
-        <v>144471.6510416667</v>
+        <v>12623.46061197917</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2728036468227704</v>
+        <v>2.989461998144785</v>
       </c>
       <c r="E6" t="n">
-        <v>144471.5859375</v>
+        <v>12622.78727213542</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3995604316393535</v>
+        <v>6.445006688435872</v>
       </c>
       <c r="C7" t="n">
-        <v>141260.8802083333</v>
+        <v>12380.41634114583</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4191442131996155</v>
+        <v>5.817401687304179</v>
       </c>
       <c r="E7" t="n">
-        <v>141260.9036458333</v>
+        <v>12379.78922526042</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1893685112396876</v>
+        <v>1.170237938563029</v>
       </c>
       <c r="C8" t="n">
-        <v>138124.296875</v>
+        <v>12133.98079427083</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1937054047981898</v>
+        <v>1.415287713209788</v>
       </c>
       <c r="E8" t="n">
-        <v>138124.3046875</v>
+        <v>12134.22591145833</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2711857507626216</v>
+        <v>0.5419642229874929</v>
       </c>
       <c r="C9" t="n">
-        <v>135060.2239583333</v>
+        <v>11896.7646484375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2265425237516562</v>
+        <v>1.252407332261403</v>
       </c>
       <c r="E9" t="n">
-        <v>135060.1783854167</v>
+        <v>11897.47501627604</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3010543634494146</v>
+        <v>1.056907514731089</v>
       </c>
       <c r="C10" t="n">
-        <v>132066.2239583333</v>
+        <v>11665.21419270833</v>
       </c>
       <c r="D10" t="n">
-        <v>0.313452129252255</v>
+        <v>0.7932560245196024</v>
       </c>
       <c r="E10" t="n">
-        <v>132066.2369791667</v>
+        <v>11664.95035807292</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -568,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2125903566678365</v>
+        <v>1.603026032447815</v>
       </c>
       <c r="C11" t="n">
-        <v>129140.1744791667</v>
+        <v>11438.22233072917</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1988202544550101</v>
+        <v>1.724078784386317</v>
       </c>
       <c r="E11" t="n">
-        <v>129140.1595052083</v>
+        <v>11438.34318033854</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1952873071034749</v>
+        <v>0.5923917492230734</v>
       </c>
       <c r="C12" t="n">
-        <v>126280.375</v>
+        <v>11214.107421875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2111414688018461</v>
+        <v>0.6809390286604563</v>
       </c>
       <c r="E12" t="n">
-        <v>126280.390625</v>
+        <v>11214.19563802083</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -602,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2168800532817841</v>
+        <v>4.154921531677246</v>
       </c>
       <c r="C13" t="n">
-        <v>123484.9348958333</v>
+        <v>10998.78190104167</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1746958773583174</v>
+        <v>4.014195243517558</v>
       </c>
       <c r="E13" t="n">
-        <v>123484.8938802083</v>
+        <v>10998.64119466146</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -619,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2767407198746999</v>
+        <v>2.664637168248495</v>
       </c>
       <c r="C14" t="n">
-        <v>120752.1354166667</v>
+        <v>10782.91927083333</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2893102532252669</v>
+        <v>2.806402603785197</v>
       </c>
       <c r="E14" t="n">
-        <v>120752.1484375</v>
+        <v>10783.06127929688</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1811213592688243</v>
+        <v>0.4014762242635091</v>
       </c>
       <c r="C15" t="n">
-        <v>118080.1041666667</v>
+        <v>10570.5654296875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1474544610828161</v>
+        <v>0.3532861943046252</v>
       </c>
       <c r="E15" t="n">
-        <v>118080.0690104167</v>
+        <v>10570.51741536458</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -653,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1487678637107213</v>
+        <v>0.3486736516157786</v>
       </c>
       <c r="C16" t="n">
-        <v>115467.4791666667</v>
+        <v>10364.4833984375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.12158738852789</v>
+        <v>0.4841258252660434</v>
       </c>
       <c r="E16" t="n">
-        <v>115467.44921875</v>
+        <v>10364.61905924479</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -670,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1354501396417618</v>
+        <v>1.715255618095398</v>
       </c>
       <c r="C17" t="n">
-        <v>112912.6588541667</v>
+        <v>10163.74186197917</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1384082700436314</v>
+        <v>1.451238304376602</v>
       </c>
       <c r="E17" t="n">
-        <v>112912.6614583333</v>
+        <v>10163.47762044271</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1365237757563591</v>
+        <v>0.2396945705016454</v>
       </c>
       <c r="C18" t="n">
-        <v>110414.2057291667</v>
+        <v>9963.980143229166</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1057956982403994</v>
+        <v>0.1819249664743741</v>
       </c>
       <c r="E18" t="n">
-        <v>110414.1751302083</v>
+        <v>9963.922200520834</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -704,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1260020111997922</v>
+        <v>0.7161746025085449</v>
       </c>
       <c r="C19" t="n">
-        <v>107970.640625</v>
+        <v>9769.911458333334</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09651139906297128</v>
+        <v>0.9146945476531982</v>
       </c>
       <c r="E19" t="n">
-        <v>107970.6119791667</v>
+        <v>9770.110107421875</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1215572406848272</v>
+        <v>0.2799875934918721</v>
       </c>
       <c r="C20" t="n">
-        <v>105580.6223958333</v>
+        <v>9578.573893229166</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1011710536355774</v>
+        <v>0.1638996489346027</v>
       </c>
       <c r="E20" t="n">
-        <v>105580.6015625</v>
+        <v>9578.457845052084</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -738,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1267822658022245</v>
+        <v>0.1970692773660024</v>
       </c>
       <c r="C21" t="n">
-        <v>103242.8619791667</v>
+        <v>9391.139322916666</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1280853512386481</v>
+        <v>0.2544109610219796</v>
       </c>
       <c r="E21" t="n">
-        <v>103242.8626302083</v>
+        <v>9391.196695963541</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -755,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1235468685626984</v>
+        <v>0.1391261170307795</v>
       </c>
       <c r="C22" t="n">
-        <v>100956.0546875</v>
+        <v>9207.211588541666</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08995244683076938</v>
+        <v>0.3228283102313678</v>
       </c>
       <c r="E22" t="n">
-        <v>100956.0201822917</v>
+        <v>9207.39501953125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -772,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1743870625893275</v>
+        <v>0.2345713178316752</v>
       </c>
       <c r="C23" t="n">
-        <v>98719.046875</v>
+        <v>9026.861328125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1156299095600843</v>
+        <v>0.1812806551655134</v>
       </c>
       <c r="E23" t="n">
-        <v>98718.99153645833</v>
+        <v>9026.80810546875</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -789,16 +789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1853277832269669</v>
+        <v>0.130258542795976</v>
       </c>
       <c r="C24" t="n">
-        <v>96530.55208333333</v>
+        <v>8849.662434895834</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2088122060522437</v>
+        <v>0.1644546923538049</v>
       </c>
       <c r="E24" t="n">
-        <v>96530.576171875</v>
+        <v>8849.696614583334</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,16 +806,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1538930659492811</v>
+        <v>0.1269448921084404</v>
       </c>
       <c r="C25" t="n">
-        <v>94389.40364583333</v>
+        <v>8675.87109375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1065101729085048</v>
+        <v>0.1120933486769597</v>
       </c>
       <c r="E25" t="n">
-        <v>94389.35677083333</v>
+        <v>8675.856363932291</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2181054949760437</v>
+        <v>0.1437858914335569</v>
       </c>
       <c r="C26" t="n">
-        <v>92294.6640625</v>
+        <v>8505.331380208334</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1490295181671778</v>
+        <v>0.09916775797804196</v>
       </c>
       <c r="E26" t="n">
-        <v>92294.59505208333</v>
+        <v>8505.286702473959</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -840,16 +840,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1825034196178118</v>
+        <v>0.1044780164957047</v>
       </c>
       <c r="C27" t="n">
-        <v>90245.01041666667</v>
+        <v>8337.9140625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2009010957553983</v>
+        <v>0.1028096880763769</v>
       </c>
       <c r="E27" t="n">
-        <v>90245.029296875</v>
+        <v>8337.912516276041</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -857,16 +857,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1389142324527105</v>
+        <v>0.1202971438566844</v>
       </c>
       <c r="C28" t="n">
-        <v>88239.515625</v>
+        <v>8173.683919270833</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1105844974517822</v>
+        <v>0.1336779613047838</v>
       </c>
       <c r="E28" t="n">
-        <v>88239.48502604167</v>
+        <v>8173.697102864583</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -874,16 +874,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.150494026641051</v>
+        <v>0.1775220632553101</v>
       </c>
       <c r="C29" t="n">
-        <v>86277.23697916667</v>
+        <v>8012.568522135417</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09493917754540841</v>
+        <v>0.1020938809961081</v>
       </c>
       <c r="E29" t="n">
-        <v>86277.18098958333</v>
+        <v>8012.493204752604</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -891,16 +891,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1093341882030169</v>
+        <v>0.1658867051204046</v>
       </c>
       <c r="C30" t="n">
-        <v>84357.0390625</v>
+        <v>7854.3994140625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1019792510196567</v>
+        <v>0.1114399308959643</v>
       </c>
       <c r="E30" t="n">
-        <v>84357.03059895833</v>
+        <v>7854.344889322917</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -908,16 +908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1057492519418399</v>
+        <v>0.07862676059206326</v>
       </c>
       <c r="C31" t="n">
-        <v>82478.11197916667</v>
+        <v>7699.1181640625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09156974342962106</v>
+        <v>0.1205204433451096</v>
       </c>
       <c r="E31" t="n">
-        <v>82478.10026041667</v>
+        <v>7699.160074869792</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -925,16 +925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1229833289980888</v>
+        <v>0.116183876991272</v>
       </c>
       <c r="C32" t="n">
-        <v>80639.46614583333</v>
+        <v>7546.8720703125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07964214185873668</v>
+        <v>0.1167330018555125</v>
       </c>
       <c r="E32" t="n">
-        <v>80639.423828125</v>
+        <v>7546.872517903646</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -942,16 +942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1221744293967883</v>
+        <v>0.1254898098607858</v>
       </c>
       <c r="C33" t="n">
-        <v>78840.16927083333</v>
+        <v>7397.45947265625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07694401172921062</v>
+        <v>0.09433374088257551</v>
       </c>
       <c r="E33" t="n">
-        <v>78840.12434895833</v>
+        <v>7397.428304036458</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -959,16 +959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1187887787818909</v>
+        <v>0.1077515830596288</v>
       </c>
       <c r="C34" t="n">
-        <v>77079.3515625</v>
+        <v>7250.829427083333</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07825684516380231</v>
+        <v>0.1178333864857753</v>
       </c>
       <c r="E34" t="n">
-        <v>77079.3125</v>
+        <v>7250.839518229167</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,16 +976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1059251601497332</v>
+        <v>0.1582190667589506</v>
       </c>
       <c r="C35" t="n">
-        <v>75356.17708333333</v>
+        <v>7107.027018229167</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1017713868059218</v>
+        <v>0.1411701279381911</v>
       </c>
       <c r="E35" t="n">
-        <v>75356.17252604167</v>
+        <v>7107.009806315104</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1098785524566968</v>
+        <v>0.1514741703867912</v>
       </c>
       <c r="C36" t="n">
-        <v>73669.796875</v>
+        <v>6965.870279947917</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07798934432988365</v>
+        <v>0.1043814135094484</v>
       </c>
       <c r="E36" t="n">
-        <v>73669.76497395833</v>
+        <v>6965.823160807292</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1010,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.11435566842556</v>
+        <v>0.109502966205279</v>
       </c>
       <c r="C37" t="n">
-        <v>72019.41927083333</v>
+        <v>6827.335123697917</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07469058021282156</v>
+        <v>0.08598263002932072</v>
       </c>
       <c r="E37" t="n">
-        <v>72019.38020833333</v>
+        <v>6827.311564127604</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1027,16 +1027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09920503819982211</v>
+        <v>0.1521190454562505</v>
       </c>
       <c r="C38" t="n">
-        <v>70404.21614583333</v>
+        <v>6691.493977864583</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1065262497868389</v>
+        <v>0.2181021062036355</v>
       </c>
       <c r="E38" t="n">
-        <v>70404.22330729167</v>
+        <v>6691.559936523438</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1307841390371323</v>
+        <v>0.1350313040117423</v>
       </c>
       <c r="C39" t="n">
-        <v>68823.49739583333</v>
+        <v>6558.169108072917</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07767837758486469</v>
+        <v>0.09779914127041896</v>
       </c>
       <c r="E39" t="n">
-        <v>68823.4453125</v>
+        <v>6558.131998697917</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1061,16 +1061,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1091701438029607</v>
+        <v>0.240668460726738</v>
       </c>
       <c r="C40" t="n">
-        <v>67276.40625</v>
+        <v>6427.48583984375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07084336876869202</v>
+        <v>0.1677793295433124</v>
       </c>
       <c r="E40" t="n">
-        <v>67276.36783854167</v>
+        <v>6427.412923177083</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1078,16 +1078,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1038783366481463</v>
+        <v>0.1179220291475455</v>
       </c>
       <c r="C41" t="n">
-        <v>65762.27604166667</v>
+        <v>6299.048177083333</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08089540340006351</v>
+        <v>0.0808166606972615</v>
       </c>
       <c r="E41" t="n">
-        <v>65762.251953125</v>
+        <v>6299.010986328125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1095,16 +1095,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1012905761599541</v>
+        <v>0.1301116272807121</v>
       </c>
       <c r="C42" t="n">
-        <v>64280.3984375</v>
+        <v>6173.172037760417</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08500021339083712</v>
+        <v>0.2637207309405009</v>
       </c>
       <c r="E42" t="n">
-        <v>64280.38248697916</v>
+        <v>6173.305745442708</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1112,16 +1112,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1507765079538027</v>
+        <v>0.1203321889042854</v>
       </c>
       <c r="C43" t="n">
-        <v>62830.12760416666</v>
+        <v>6049.669596354167</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09355173880855243</v>
+        <v>0.09651696433623631</v>
       </c>
       <c r="E43" t="n">
-        <v>62830.06998697916</v>
+        <v>6049.645833333333</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1129,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09994841863711675</v>
+        <v>0.1304514532287916</v>
       </c>
       <c r="C44" t="n">
-        <v>61410.60677083334</v>
+        <v>5928.534342447917</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06928792782127857</v>
+        <v>0.1292575796445211</v>
       </c>
       <c r="E44" t="n">
-        <v>61410.57779947916</v>
+        <v>5928.533040364583</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1146,16 +1146,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1185477400819461</v>
+        <v>0.1334477116664251</v>
       </c>
       <c r="C45" t="n">
-        <v>60021.37760416666</v>
+        <v>5809.682291666667</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06945268049215277</v>
+        <v>0.09767071716487408</v>
       </c>
       <c r="E45" t="n">
-        <v>60021.3271484375</v>
+        <v>5809.646443684896</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1163,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.09934734801451366</v>
+        <v>0.08357380951444308</v>
       </c>
       <c r="C46" t="n">
-        <v>58661.66666666666</v>
+        <v>5693.0234375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07453866473709543</v>
+        <v>0.08223780368765195</v>
       </c>
       <c r="E46" t="n">
-        <v>58661.6416015625</v>
+        <v>5693.022216796875</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1180,16 +1180,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1109006727735202</v>
+        <v>0.08931960165500641</v>
       </c>
       <c r="C47" t="n">
-        <v>57330.92317708334</v>
+        <v>5578.633626302083</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06934633820007245</v>
+        <v>0.1181226292004188</v>
       </c>
       <c r="E47" t="n">
-        <v>57330.88151041666</v>
+        <v>5578.662556966146</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0983484610915184</v>
+        <v>0.09325554594397545</v>
       </c>
       <c r="C48" t="n">
-        <v>56028.48567708334</v>
+        <v>5466.4189453125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07876520634939273</v>
+        <v>0.1437836773693562</v>
       </c>
       <c r="E48" t="n">
-        <v>56028.46549479166</v>
+        <v>5466.469482421875</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1103986774881681</v>
+        <v>0.1107966229319572</v>
       </c>
       <c r="C49" t="n">
-        <v>54753.78515625</v>
+        <v>5356.36474609375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07495800266042352</v>
+        <v>0.1007758031288783</v>
       </c>
       <c r="E49" t="n">
-        <v>54753.7509765625</v>
+        <v>5356.354695638021</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1026022161046664</v>
+        <v>0.1895844539006551</v>
       </c>
       <c r="C50" t="n">
-        <v>53506.21223958334</v>
+        <v>5248.470377604167</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0767277746150891</v>
+        <v>0.1580090895295143</v>
       </c>
       <c r="E50" t="n">
-        <v>53506.1865234375</v>
+        <v>5248.438802083333</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1113535811503728</v>
+        <v>0.09619722639520963</v>
       </c>
       <c r="C51" t="n">
-        <v>52285.22135416666</v>
+        <v>5142.453776041667</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08121310236553352</v>
+        <v>0.09539860331763823</v>
       </c>
       <c r="E51" t="n">
-        <v>52285.19075520834</v>
+        <v>5142.452758789062</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1265,16 +1265,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1068181072672208</v>
+        <v>0.1522983734806379</v>
       </c>
       <c r="C52" t="n">
-        <v>51090.23177083334</v>
+        <v>5038.606282552083</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0799437346868217</v>
+        <v>0.09077239222824574</v>
       </c>
       <c r="E52" t="n">
-        <v>51090.20540364584</v>
+        <v>5038.544840494792</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1115333065390587</v>
+        <v>0.09880022456248601</v>
       </c>
       <c r="C53" t="n">
-        <v>49920.71354166666</v>
+        <v>4936.639322916667</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07571715132022898</v>
+        <v>0.1003487873822451</v>
       </c>
       <c r="E53" t="n">
-        <v>49920.67708333334</v>
+        <v>4936.640787760417</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.104111447930336</v>
+        <v>0.2173406680425008</v>
       </c>
       <c r="C54" t="n">
-        <v>48776.10416666666</v>
+        <v>4836.787760416667</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08430338309456904</v>
+        <v>0.1382381270329157</v>
       </c>
       <c r="E54" t="n">
-        <v>48776.0849609375</v>
+        <v>4836.708536783854</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1042295744021734</v>
+        <v>0.1867212330301603</v>
       </c>
       <c r="C55" t="n">
-        <v>47655.9296875</v>
+        <v>4738.701822916667</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08422586771969993</v>
+        <v>0.1149059872453411</v>
       </c>
       <c r="E55" t="n">
-        <v>47655.90852864584</v>
+        <v>4738.630086263021</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.101302112142245</v>
+        <v>0.1784157405296961</v>
       </c>
       <c r="C56" t="n">
-        <v>46559.65234375</v>
+        <v>4642.513834635417</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07633776435007651</v>
+        <v>0.1053349648912748</v>
       </c>
       <c r="E56" t="n">
-        <v>46559.62760416666</v>
+        <v>4642.440755208333</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1021760106086731</v>
+        <v>0.09510624036192894</v>
       </c>
       <c r="C57" t="n">
-        <v>45486.78515625</v>
+        <v>4548.103352864583</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07204145922635992</v>
+        <v>0.0838294258962075</v>
       </c>
       <c r="E57" t="n">
-        <v>45486.75553385416</v>
+        <v>4548.092122395833</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1102321470777194</v>
+        <v>0.1664744863907496</v>
       </c>
       <c r="C58" t="n">
-        <v>44436.84114583334</v>
+        <v>4455.65576171875</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07360988048215707</v>
+        <v>0.1217923828711112</v>
       </c>
       <c r="E58" t="n">
-        <v>44436.8037109375</v>
+        <v>4455.611083984375</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1384,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1040798053145409</v>
+        <v>0.1876106162865957</v>
       </c>
       <c r="C59" t="n">
-        <v>43409.33072916666</v>
+        <v>4364.92724609375</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07473110221326351</v>
+        <v>0.1390226564059655</v>
       </c>
       <c r="E59" t="n">
-        <v>43409.30110677084</v>
+        <v>4364.878743489583</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1401,16 +1401,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.104896863301595</v>
+        <v>0.1259402682383855</v>
       </c>
       <c r="C60" t="n">
-        <v>42403.79947916666</v>
+        <v>4275.857747395833</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07868331344798207</v>
+        <v>0.08687663357704878</v>
       </c>
       <c r="E60" t="n">
-        <v>42403.7744140625</v>
+        <v>4275.818806966146</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1042070438464483</v>
+        <v>0.115675363689661</v>
       </c>
       <c r="C61" t="n">
-        <v>41419.79947916666</v>
+        <v>4188.550130208333</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07616125931963325</v>
+        <v>0.08296248565117519</v>
       </c>
       <c r="E61" t="n">
-        <v>41419.771484375</v>
+        <v>4188.517618815104</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1059529806176821</v>
+        <v>0.1617676143844922</v>
       </c>
       <c r="C62" t="n">
-        <v>40456.87890625</v>
+        <v>4102.9775390625</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07613824742535751</v>
+        <v>0.1109632514417171</v>
       </c>
       <c r="E62" t="n">
-        <v>40456.84928385416</v>
+        <v>4102.926839192708</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1032834177215894</v>
+        <v>0.1997089684009552</v>
       </c>
       <c r="C63" t="n">
-        <v>39514.61067708334</v>
+        <v>4019.044759114583</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07622890158866842</v>
+        <v>0.1585933404664198</v>
       </c>
       <c r="E63" t="n">
-        <v>39514.58365885416</v>
+        <v>4019.003601074219</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.109220415353775</v>
+        <v>0.08031261463960011</v>
       </c>
       <c r="C64" t="n">
-        <v>38592.56380208334</v>
+        <v>3936.572998046875</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07826815545558929</v>
+        <v>0.1592122577130795</v>
       </c>
       <c r="E64" t="n">
-        <v>38592.53092447916</v>
+        <v>3936.65185546875</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.100641705095768</v>
+        <v>0.2106710970401764</v>
       </c>
       <c r="C65" t="n">
-        <v>37690.3203125</v>
+        <v>3855.947428385417</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0769319945635895</v>
+        <v>0.1550225255390008</v>
       </c>
       <c r="E65" t="n">
-        <v>37690.29622395834</v>
+        <v>3855.891866048177</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1092276995380719</v>
+        <v>0.1214141820867856</v>
       </c>
       <c r="C66" t="n">
-        <v>36807.48046875</v>
+        <v>3776.6630859375</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07902104593813419</v>
+        <v>0.08525526275237401</v>
       </c>
       <c r="E66" t="n">
-        <v>36807.4501953125</v>
+        <v>3776.627014160156</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09935811161994934</v>
+        <v>0.09861995279788971</v>
       </c>
       <c r="C67" t="n">
-        <v>35943.62369791666</v>
+        <v>3698.981119791667</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08027969626709819</v>
+        <v>0.1034666063884894</v>
       </c>
       <c r="E67" t="n">
-        <v>35943.603515625</v>
+        <v>3698.986002604167</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1090311532219251</v>
+        <v>0.08717453603943189</v>
       </c>
       <c r="C68" t="n">
-        <v>35098.3984375</v>
+        <v>3622.815185546875</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08149296976625919</v>
+        <v>0.1399394348263741</v>
       </c>
       <c r="E68" t="n">
-        <v>35098.37076822916</v>
+        <v>3622.867980957031</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1083059559265773</v>
+        <v>0.1093752135833104</v>
       </c>
       <c r="C69" t="n">
-        <v>34271.38932291666</v>
+        <v>3548.15771484375</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08215568618228038</v>
+        <v>0.08147659866760175</v>
       </c>
       <c r="E69" t="n">
-        <v>34271.36263020834</v>
+        <v>3548.129821777344</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09966763357321422</v>
+        <v>0.2438732733329137</v>
       </c>
       <c r="C70" t="n">
-        <v>33462.23567708334</v>
+        <v>3475.06494140625</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08294536825269461</v>
+        <v>0.214208277563254</v>
       </c>
       <c r="E70" t="n">
-        <v>33462.2197265625</v>
+        <v>3475.03525797526</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1092219228545825</v>
+        <v>0.1350735972325007</v>
       </c>
       <c r="C71" t="n">
-        <v>32670.580078125</v>
+        <v>3403.166259765625</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08437384696056445</v>
+        <v>0.1575752918918928</v>
       </c>
       <c r="E71" t="n">
-        <v>32670.55501302083</v>
+        <v>3403.18886311849</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1040923496087392</v>
+        <v>0.1959923505783081</v>
       </c>
       <c r="C72" t="n">
-        <v>31896.05143229167</v>
+        <v>3332.833902994792</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08377483114600182</v>
+        <v>0.1350888504336278</v>
       </c>
       <c r="E72" t="n">
-        <v>31896.03108723958</v>
+        <v>3332.773030598958</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.108213039735953</v>
+        <v>0.1231852148969968</v>
       </c>
       <c r="C73" t="n">
-        <v>31138.30729166667</v>
+        <v>3263.736490885417</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08552788539479177</v>
+        <v>0.09692567462722461</v>
       </c>
       <c r="E73" t="n">
-        <v>31138.28466796875</v>
+        <v>3263.710184733073</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1639,16 +1639,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1065669159094493</v>
+        <v>0.104485164086024</v>
       </c>
       <c r="C74" t="n">
-        <v>30397.00325520833</v>
+        <v>3196.037353515625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08676888110737006</v>
+        <v>0.1689110919833183</v>
       </c>
       <c r="E74" t="n">
-        <v>30396.98307291667</v>
+        <v>3196.101725260417</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1656,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1061995004614194</v>
+        <v>0.1729241634408633</v>
       </c>
       <c r="C75" t="n">
-        <v>29671.79947916667</v>
+        <v>3129.750325520833</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08759766134123008</v>
+        <v>0.1209266235431035</v>
       </c>
       <c r="E75" t="n">
-        <v>29671.78076171875</v>
+        <v>3129.698323567708</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1673,16 +1673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1070190966129303</v>
+        <v>0.08748272061347961</v>
       </c>
       <c r="C76" t="n">
-        <v>28962.373046875</v>
+        <v>3064.608479817708</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08912176049003999</v>
+        <v>0.1215337670097748</v>
       </c>
       <c r="E76" t="n">
-        <v>28962.35481770833</v>
+        <v>3064.642537434896</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1690,16 +1690,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1055142333110173</v>
+        <v>0.128673014541467</v>
       </c>
       <c r="C77" t="n">
-        <v>28268.400390625</v>
+        <v>3000.870930989583</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08985351646939914</v>
+        <v>0.1076879010846217</v>
       </c>
       <c r="E77" t="n">
-        <v>28268.38460286458</v>
+        <v>3000.849853515625</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1707,16 +1707,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1101935381690661</v>
+        <v>0.15182064473629</v>
       </c>
       <c r="C78" t="n">
-        <v>27589.56705729167</v>
+        <v>2938.37158203125</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09152945751945178</v>
+        <v>0.1600396335124969</v>
       </c>
       <c r="E78" t="n">
-        <v>27589.54850260417</v>
+        <v>2938.379760742188</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1724,16 +1724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1061563516656558</v>
+        <v>0.1494478359818459</v>
       </c>
       <c r="C79" t="n">
-        <v>26925.55403645833</v>
+        <v>2877.081136067708</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09141372082134087</v>
+        <v>0.1014727291961511</v>
       </c>
       <c r="E79" t="n">
-        <v>26925.53889973958</v>
+        <v>2877.033121744792</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1741,16 +1741,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1113575051228205</v>
+        <v>0.1415547579526901</v>
       </c>
       <c r="C80" t="n">
-        <v>26276.07421875</v>
+        <v>2816.987711588542</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09386707252512376</v>
+        <v>0.09467859488601486</v>
       </c>
       <c r="E80" t="n">
-        <v>26276.05631510417</v>
+        <v>2816.940877278646</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1085311124722163</v>
+        <v>0.1471456550061703</v>
       </c>
       <c r="C81" t="n">
-        <v>25640.81575520833</v>
+        <v>2758.092203776042</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09318070703496535</v>
+        <v>0.1042521248261134</v>
       </c>
       <c r="E81" t="n">
-        <v>25640.80029296875</v>
+        <v>2758.049296061198</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1106572225689888</v>
+        <v>0.1695440212885539</v>
       </c>
       <c r="C82" t="n">
-        <v>25019.50325520833</v>
+        <v>2700.372884114583</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09482661696771781</v>
+        <v>0.1158153861761093</v>
       </c>
       <c r="E82" t="n">
-        <v>25019.48746744792</v>
+        <v>2700.319193522135</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.108440359433492</v>
+        <v>0.08687794456879298</v>
       </c>
       <c r="C83" t="n">
-        <v>24411.83919270833</v>
+        <v>2643.688720703125</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09515601458648841</v>
+        <v>0.09354208782315254</v>
       </c>
       <c r="E83" t="n">
-        <v>24411.82584635417</v>
+        <v>2643.695332845052</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1087880035241445</v>
+        <v>0.09256527572870255</v>
       </c>
       <c r="C84" t="n">
-        <v>23817.55598958333</v>
+        <v>2588.211995442708</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09590197696040074</v>
+        <v>0.1092660495390495</v>
       </c>
       <c r="E84" t="n">
-        <v>23817.54329427083</v>
+        <v>2588.228678385417</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1826,16 +1826,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1089030082027117</v>
+        <v>0.1421381185452143</v>
       </c>
       <c r="C85" t="n">
-        <v>23236.37434895833</v>
+        <v>2533.877034505208</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09684989042580128</v>
+        <v>0.08661618394156297</v>
       </c>
       <c r="E85" t="n">
-        <v>23236.36263020833</v>
+        <v>2533.821492513021</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1120100940267245</v>
+        <v>0.1454874103267988</v>
       </c>
       <c r="C86" t="n">
-        <v>22668.029296875</v>
+        <v>2480.579345703125</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09920674252013366</v>
+        <v>0.09767771077652772</v>
       </c>
       <c r="E86" t="n">
-        <v>22668.01725260417</v>
+        <v>2480.531494140625</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1860,16 +1860,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1157118876775106</v>
+        <v>0.1444629629453023</v>
       </c>
       <c r="C87" t="n">
-        <v>22112.25846354167</v>
+        <v>2428.338623046875</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1018271570404371</v>
+        <v>0.1071292689690987</v>
       </c>
       <c r="E87" t="n">
-        <v>22112.24462890625</v>
+        <v>2428.301249186198</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1877,16 +1877,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1163038189212481</v>
+        <v>0.1956711734334628</v>
       </c>
       <c r="C88" t="n">
-        <v>21568.80338541667</v>
+        <v>2377.192057291667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1033139163628221</v>
+        <v>0.1351949243495862</v>
       </c>
       <c r="E88" t="n">
-        <v>21568.791015625</v>
+        <v>2377.131530761719</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1894,16 +1894,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1104411433140437</v>
+        <v>0.1435644676287969</v>
       </c>
       <c r="C89" t="n">
-        <v>21037.40559895833</v>
+        <v>2326.966552734375</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1021003583446145</v>
+        <v>0.09690233133733273</v>
       </c>
       <c r="E89" t="n">
-        <v>21037.39680989583</v>
+        <v>2326.919881184896</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1911,16 +1911,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1129326273997625</v>
+        <v>0.1763651718695959</v>
       </c>
       <c r="C90" t="n">
-        <v>20517.83203125</v>
+        <v>2277.829671223958</v>
       </c>
       <c r="D90" t="n">
-        <v>0.10329628114899</v>
+        <v>0.1062947269529104</v>
       </c>
       <c r="E90" t="n">
-        <v>20517.82210286458</v>
+        <v>2277.759623209635</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1928,16 +1928,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1133745685219765</v>
+        <v>0.09759824971357982</v>
       </c>
       <c r="C91" t="n">
-        <v>20009.841796875</v>
+        <v>2229.566650390625</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1049179285764694</v>
+        <v>0.1229438787947098</v>
       </c>
       <c r="E91" t="n">
-        <v>20009.83349609375</v>
+        <v>2229.591918945312</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1945,16 +1945,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1136873066425323</v>
+        <v>0.1820906723539034</v>
       </c>
       <c r="C92" t="n">
-        <v>19513.17838541667</v>
+        <v>2182.433837890625</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1059192772954702</v>
+        <v>0.1249806024134159</v>
       </c>
       <c r="E92" t="n">
-        <v>19513.17057291667</v>
+        <v>2182.376708984375</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1962,16 +1962,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1141461208462715</v>
+        <v>0.1167210601270199</v>
       </c>
       <c r="C93" t="n">
-        <v>19027.62955729167</v>
+        <v>2136.096516927083</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1064882259815931</v>
+        <v>0.09614261736472447</v>
       </c>
       <c r="E93" t="n">
-        <v>19027.62223307292</v>
+        <v>2136.075887044271</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1979,16 +1979,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1173933247725169</v>
+        <v>0.1607866138219833</v>
       </c>
       <c r="C94" t="n">
-        <v>18552.96354166667</v>
+        <v>2090.796549479167</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1085951930532853</v>
+        <v>0.1049668304622173</v>
       </c>
       <c r="E94" t="n">
-        <v>18552.95442708333</v>
+        <v>2090.740702311198</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1996,16 +1996,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1201827824115753</v>
+        <v>0.1053105170528094</v>
       </c>
       <c r="C95" t="n">
-        <v>18088.94986979167</v>
+        <v>2046.312784830729</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1117195356637239</v>
+        <v>0.08735427384575208</v>
       </c>
       <c r="E95" t="n">
-        <v>18088.94189453125</v>
+        <v>2046.294901529948</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1158562153577805</v>
+        <v>0.1266236479083697</v>
       </c>
       <c r="C96" t="n">
-        <v>17635.37369791667</v>
+        <v>2002.800821940104</v>
       </c>
       <c r="D96" t="n">
-        <v>0.111509395763278</v>
+        <v>0.08692495912934343</v>
       </c>
       <c r="E96" t="n">
-        <v>17635.36930338542</v>
+        <v>2002.76112874349</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1198401401440303</v>
+        <v>0.127920925617218</v>
       </c>
       <c r="C97" t="n">
-        <v>17192.02604166667</v>
+        <v>1960.145222981771</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1132189799100161</v>
+        <v>0.08769641195734341</v>
       </c>
       <c r="E97" t="n">
-        <v>17192.01953125</v>
+        <v>1960.10503133138</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2047,16 +2047,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.119152158498764</v>
+        <v>0.1047632520397504</v>
       </c>
       <c r="C98" t="n">
-        <v>16758.6875</v>
+        <v>1918.329386393229</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1142095681279898</v>
+        <v>0.1725922040641308</v>
       </c>
       <c r="E98" t="n">
-        <v>16758.68245442708</v>
+        <v>1918.397196451823</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2064,16 +2064,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1180801341931025</v>
+        <v>0.1189091677467028</v>
       </c>
       <c r="C99" t="n">
-        <v>16335.158203125</v>
+        <v>1877.400065104167</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1147389883796374</v>
+        <v>0.1401987603555123</v>
       </c>
       <c r="E99" t="n">
-        <v>16335.15478515625</v>
+        <v>1877.421325683594</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2081,16 +2081,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1221075480182966</v>
+        <v>0.1209647183616956</v>
       </c>
       <c r="C100" t="n">
-        <v>15921.23893229167</v>
+        <v>1837.290649414062</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1173595103124778</v>
+        <v>0.09519283535579841</v>
       </c>
       <c r="E100" t="n">
-        <v>15921.234375</v>
+        <v>1837.264851888021</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2098,16 +2098,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1207152605056763</v>
+        <v>0.115740326543649</v>
       </c>
       <c r="C101" t="n">
-        <v>15516.72428385417</v>
+        <v>1797.989379882812</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1179056322822968</v>
+        <v>0.1398561770717303</v>
       </c>
       <c r="E101" t="n">
-        <v>15516.72143554688</v>
+        <v>1798.013519287109</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2115,16 +2115,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1224019601941109</v>
+        <v>0.109589306016763</v>
       </c>
       <c r="C102" t="n">
-        <v>15121.4248046875</v>
+        <v>1759.486897786458</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1192077435553074</v>
+        <v>0.1034374485413233</v>
       </c>
       <c r="E102" t="n">
-        <v>15121.421875</v>
+        <v>1759.480743408203</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2132,16 +2132,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1244181394577026</v>
+        <v>0.2252537285288175</v>
       </c>
       <c r="C103" t="n">
-        <v>14735.150390625</v>
+        <v>1721.889078776042</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1214398176719745</v>
+        <v>0.1531754874934753</v>
       </c>
       <c r="E103" t="n">
-        <v>14735.14770507812</v>
+        <v>1721.816965738932</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2149,16 +2149,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.123814935485522</v>
+        <v>0.2012343357006709</v>
       </c>
       <c r="C104" t="n">
-        <v>14357.71158854167</v>
+        <v>1684.927530924479</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1223815170427163</v>
+        <v>0.1470907336721818</v>
       </c>
       <c r="E104" t="n">
-        <v>14357.71028645833</v>
+        <v>1684.873413085938</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2166,16 +2166,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1257906233270963</v>
+        <v>0.1104478401442369</v>
       </c>
       <c r="C105" t="n">
-        <v>13988.92936197917</v>
+        <v>1648.659871419271</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1240834525475899</v>
+        <v>0.09461495652794838</v>
       </c>
       <c r="E105" t="n">
-        <v>13988.92789713542</v>
+        <v>1648.644063313802</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2183,16 +2183,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1268002390861511</v>
+        <v>0.1265908839801947</v>
       </c>
       <c r="C106" t="n">
-        <v>13628.62109375</v>
+        <v>1613.239624023438</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1258473477015893</v>
+        <v>0.1091557157536348</v>
       </c>
       <c r="E106" t="n">
-        <v>13628.61995442708</v>
+        <v>1613.222178141276</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2200,16 +2200,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1271036118268967</v>
+        <v>0.1414616952339808</v>
       </c>
       <c r="C107" t="n">
-        <v>13276.61328125</v>
+        <v>1578.546752929688</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1269199705372254</v>
+        <v>0.1046843708803256</v>
       </c>
       <c r="E107" t="n">
-        <v>13276.61328125</v>
+        <v>1578.509969075521</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,16 +2217,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1297494520743688</v>
+        <v>0.1387270838022232</v>
       </c>
       <c r="C108" t="n">
-        <v>12932.734375</v>
+        <v>1544.550089518229</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1292418421556552</v>
+        <v>0.1041128939638535</v>
       </c>
       <c r="E108" t="n">
-        <v>12932.73396809896</v>
+        <v>1544.515502929688</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2234,16 +2234,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1287579586108526</v>
+        <v>0.1167853362858295</v>
       </c>
       <c r="C109" t="n">
-        <v>12596.8134765625</v>
+        <v>1511.234944661458</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1297619187583526</v>
+        <v>0.1013078391551971</v>
       </c>
       <c r="E109" t="n">
-        <v>12596.81429036458</v>
+        <v>1511.219462076823</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2251,16 +2251,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1309386442104975</v>
+        <v>0.1162444055080414</v>
       </c>
       <c r="C110" t="n">
-        <v>12268.6875</v>
+        <v>1478.626627604167</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1313206584503253</v>
+        <v>0.1287621309359868</v>
       </c>
       <c r="E110" t="n">
-        <v>12268.68798828125</v>
+        <v>1478.639129638672</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2268,16 +2268,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1303021684288979</v>
+        <v>0.09608730673789978</v>
       </c>
       <c r="C111" t="n">
-        <v>11948.18782552083</v>
+        <v>1446.673990885417</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1321655133118232</v>
+        <v>0.1382300419112047</v>
       </c>
       <c r="E111" t="n">
-        <v>11948.18977864583</v>
+        <v>1446.716105143229</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2285,16 +2285,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1320761243502299</v>
+        <v>0.1354618693391482</v>
       </c>
       <c r="C112" t="n">
-        <v>11635.1611328125</v>
+        <v>1415.446126302083</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1336315957208475</v>
+        <v>0.0929164628808697</v>
       </c>
       <c r="E112" t="n">
-        <v>11635.16292317708</v>
+        <v>1415.403584798177</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2302,16 +2302,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1330256089568138</v>
+        <v>0.1923610977828503</v>
       </c>
       <c r="C113" t="n">
-        <v>11329.4501953125</v>
+        <v>1384.8828125</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1352501635750135</v>
+        <v>0.1371007338166237</v>
       </c>
       <c r="E113" t="n">
-        <v>11329.45263671875</v>
+        <v>1384.82753499349</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1349021618564924</v>
+        <v>0.1272226522366206</v>
       </c>
       <c r="C114" t="n">
-        <v>11030.90071614583</v>
+        <v>1354.834269205729</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1371223777532578</v>
+        <v>0.08914019353687763</v>
       </c>
       <c r="E114" t="n">
-        <v>11030.90266927083</v>
+        <v>1354.796162923177</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2336,16 +2336,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1362788205345472</v>
+        <v>0.1018079270919164</v>
       </c>
       <c r="C115" t="n">
-        <v>10739.36393229167</v>
+        <v>1325.44970703125</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1388210902611414</v>
+        <v>0.1635463399191698</v>
       </c>
       <c r="E115" t="n">
-        <v>10739.36637369792</v>
+        <v>1325.511454264323</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2353,16 +2353,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1361525307099024</v>
+        <v>0.1182637388507525</v>
       </c>
       <c r="C116" t="n">
-        <v>10454.68880208333</v>
+        <v>1296.723225911458</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1396847305198511</v>
+        <v>0.1188257162769635</v>
       </c>
       <c r="E116" t="n">
-        <v>10454.69230143229</v>
+        <v>1296.723795572917</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2370,16 +2370,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1377416973312696</v>
+        <v>0.1167882805069288</v>
       </c>
       <c r="C117" t="n">
-        <v>10176.7373046875</v>
+        <v>1268.581176757812</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1413539399703344</v>
+        <v>0.09724470227956772</v>
       </c>
       <c r="E117" t="n">
-        <v>10176.74096679688</v>
+        <v>1268.561604817708</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2387,16 +2387,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1393656482299169</v>
+        <v>0.1405002052585284</v>
       </c>
       <c r="C118" t="n">
-        <v>9905.362955729166</v>
+        <v>1241.054036458333</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1432027307649454</v>
+        <v>0.1010985473791758</v>
       </c>
       <c r="E118" t="n">
-        <v>9905.366780598959</v>
+        <v>1241.014678955078</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2404,16 +2404,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1403981546560923</v>
+        <v>0.1266280859708786</v>
       </c>
       <c r="C119" t="n">
-        <v>9640.427408854166</v>
+        <v>1214.070109049479</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1445192955434322</v>
+        <v>0.09714314341545105</v>
       </c>
       <c r="E119" t="n">
-        <v>9640.431640625</v>
+        <v>1214.040618896484</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2421,16 +2421,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1407127554217974</v>
+        <v>0.1370947559674581</v>
       </c>
       <c r="C120" t="n">
-        <v>9381.798177083334</v>
+        <v>1187.67529296875</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1456997549782197</v>
+        <v>0.1122441695382198</v>
       </c>
       <c r="E120" t="n">
-        <v>9381.802978515625</v>
+        <v>1187.650451660156</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2438,16 +2438,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1419930458068848</v>
+        <v>0.1238447080055873</v>
       </c>
       <c r="C121" t="n">
-        <v>9129.337565104166</v>
+        <v>1161.811319986979</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1472155619412661</v>
+        <v>0.09161121398210526</v>
       </c>
       <c r="E121" t="n">
-        <v>9129.342529296875</v>
+        <v>1161.779103597005</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2455,16 +2455,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1438089137276014</v>
+        <v>0.1000753343105316</v>
       </c>
       <c r="C122" t="n">
-        <v>8882.917317708334</v>
+        <v>1136.483276367188</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1489340625703335</v>
+        <v>0.1481659722824892</v>
       </c>
       <c r="E122" t="n">
-        <v>8882.92236328125</v>
+        <v>1136.53135172526</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2472,16 +2472,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1449685171246529</v>
+        <v>0.1272595127423604</v>
       </c>
       <c r="C123" t="n">
-        <v>8642.406575520834</v>
+        <v>1111.745686848958</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1505879803250233</v>
+        <v>0.1020156089216471</v>
       </c>
       <c r="E123" t="n">
-        <v>8642.412190755209</v>
+        <v>1111.720418294271</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2489,16 +2489,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1466449821988741</v>
+        <v>0.2761663869023323</v>
       </c>
       <c r="C124" t="n">
-        <v>8407.681966145834</v>
+        <v>1087.653727213542</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1523089172939459</v>
+        <v>0.2043299612899621</v>
       </c>
       <c r="E124" t="n">
-        <v>8407.687581380209</v>
+        <v>1087.581888834635</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2506,16 +2506,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1483383228381475</v>
+        <v>0.1288168976704279</v>
       </c>
       <c r="C125" t="n">
-        <v>8178.618489583333</v>
+        <v>1063.785196940104</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1539672228197257</v>
+        <v>0.1025037784129381</v>
       </c>
       <c r="E125" t="n">
-        <v>8178.624104817708</v>
+        <v>1063.758880615234</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1485266288121541</v>
+        <v>0.1288679329057535</v>
       </c>
       <c r="C126" t="n">
-        <v>7955.095377604167</v>
+        <v>1040.567830403646</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1549088954925537</v>
+        <v>0.09633412087957065</v>
       </c>
       <c r="E126" t="n">
-        <v>7955.101765950521</v>
+        <v>1040.535308837891</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1489789585272471</v>
+        <v>0.1239249582091967</v>
       </c>
       <c r="C127" t="n">
-        <v>7736.994140625</v>
+        <v>1017.838460286458</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1558137498795986</v>
+        <v>0.1057449138412873</v>
       </c>
       <c r="E127" t="n">
-        <v>7737.001098632812</v>
+        <v>1017.820292154948</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1507299244403839</v>
+        <v>0.1216409380237262</v>
       </c>
       <c r="C128" t="n">
-        <v>7524.199055989583</v>
+        <v>995.596923828125</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1573721778889497</v>
+        <v>0.1054963065932194</v>
       </c>
       <c r="E128" t="n">
-        <v>7524.205729166667</v>
+        <v>995.5807851155599</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1514764676491419</v>
+        <v>0.1289913207292557</v>
       </c>
       <c r="C129" t="n">
-        <v>7316.595865885417</v>
+        <v>973.8419392903646</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1585903850694498</v>
+        <v>0.09852427011355758</v>
       </c>
       <c r="E129" t="n">
-        <v>7316.602986653646</v>
+        <v>973.8114776611328</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1523330459992091</v>
+        <v>0.09999004006385803</v>
       </c>
       <c r="C130" t="n">
-        <v>7114.07177734375</v>
+        <v>952.5160725911459</v>
       </c>
       <c r="D130" t="n">
-        <v>0.159917530293266</v>
+        <v>0.1163554197798173</v>
       </c>
       <c r="E130" t="n">
-        <v>7114.079427083333</v>
+        <v>952.5324350992838</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.154040386279424</v>
+        <v>0.1126735160748164</v>
       </c>
       <c r="C131" t="n">
-        <v>6916.517903645833</v>
+        <v>931.6918131510416</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1614928233126799</v>
+        <v>0.1204435918480158</v>
       </c>
       <c r="E131" t="n">
-        <v>6916.525187174479</v>
+        <v>931.6996103922526</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2625,16 +2625,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1550712635119756</v>
+        <v>0.122842604915301</v>
       </c>
       <c r="C132" t="n">
-        <v>6723.824869791667</v>
+        <v>911.3140055338541</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1628574555118879</v>
+        <v>0.1031474694609642</v>
       </c>
       <c r="E132" t="n">
-        <v>6723.832763671875</v>
+        <v>911.2943115234375</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2642,16 +2642,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1557015875975291</v>
+        <v>0.1642047663529714</v>
       </c>
       <c r="C133" t="n">
-        <v>6535.8896484375</v>
+        <v>891.4070027669271</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1638360607127348</v>
+        <v>0.1278631339470545</v>
       </c>
       <c r="E133" t="n">
-        <v>6535.897745768229</v>
+        <v>891.3706614176432</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2659,16 +2659,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1575081348419189</v>
+        <v>0.1853328098853429</v>
       </c>
       <c r="C134" t="n">
-        <v>6352.607747395833</v>
+        <v>871.9103800455729</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1654779768238465</v>
+        <v>0.2466958103080591</v>
       </c>
       <c r="E134" t="n">
-        <v>6352.615763346354</v>
+        <v>871.9717356363932</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2676,16 +2676,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.158068835735321</v>
+        <v>0.1247913738091787</v>
       </c>
       <c r="C135" t="n">
-        <v>6173.877766927083</v>
+        <v>852.7596232096354</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1664651669561863</v>
+        <v>0.1269787189861139</v>
       </c>
       <c r="E135" t="n">
-        <v>6173.88623046875</v>
+        <v>852.7618052164713</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2693,16 +2693,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1587075193723043</v>
+        <v>0.1716505959630013</v>
       </c>
       <c r="C136" t="n">
-        <v>5999.60009765625</v>
+        <v>834.1310628255209</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1673824439446131</v>
+        <v>0.1198952166984479</v>
       </c>
       <c r="E136" t="n">
-        <v>5999.608723958333</v>
+        <v>834.0793100992838</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2710,16 +2710,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1597091108560562</v>
+        <v>0.1523100311557452</v>
       </c>
       <c r="C137" t="n">
-        <v>5829.67724609375</v>
+        <v>815.8423665364584</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1684235446155071</v>
+        <v>0.0973414359614253</v>
       </c>
       <c r="E137" t="n">
-        <v>5829.685994466146</v>
+        <v>815.7873942057291</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2727,16 +2727,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1599733680486679</v>
+        <v>0.1200939218203227</v>
       </c>
       <c r="C138" t="n">
-        <v>5664.013509114583</v>
+        <v>797.9396158854166</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1693106200546026</v>
+        <v>0.1453188719848792</v>
       </c>
       <c r="E138" t="n">
-        <v>5664.022908528646</v>
+        <v>797.96484375</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2744,16 +2744,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1605512152115504</v>
+        <v>0.1484682237108549</v>
       </c>
       <c r="C139" t="n">
-        <v>5502.514973958333</v>
+        <v>780.4889933268229</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1702018603682518</v>
+        <v>0.1043844278901815</v>
       </c>
       <c r="E139" t="n">
-        <v>5502.524739583333</v>
+        <v>780.4448954264323</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2761,16 +2761,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161422515908877</v>
+        <v>0.13994366923968</v>
       </c>
       <c r="C140" t="n">
-        <v>5345.091959635417</v>
+        <v>763.3816935221354</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1710965745151043</v>
+        <v>0.1013761063416799</v>
       </c>
       <c r="E140" t="n">
-        <v>5345.101765950521</v>
+        <v>763.3431345621744</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2778,16 +2778,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.162870466709137</v>
+        <v>0.1616337162752946</v>
       </c>
       <c r="C141" t="n">
-        <v>5191.650553385417</v>
+        <v>746.6797688802084</v>
       </c>
       <c r="D141" t="n">
-        <v>0.172611715272069</v>
+        <v>0.1150243990123272</v>
       </c>
       <c r="E141" t="n">
-        <v>5191.660359700521</v>
+        <v>746.6331481933594</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2795,16 +2795,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1640138328075409</v>
+        <v>0.1293998211622238</v>
       </c>
       <c r="C142" t="n">
-        <v>5042.10498046875</v>
+        <v>730.290771484375</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1735796369612217</v>
+        <v>0.1021663310627143</v>
       </c>
       <c r="E142" t="n">
-        <v>5042.114542643229</v>
+        <v>730.2635498046875</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2812,16 +2812,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1647449433803558</v>
+        <v>0.1242595414320628</v>
       </c>
       <c r="C143" t="n">
-        <v>4896.368815104167</v>
+        <v>714.2901407877604</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1746563532700141</v>
+        <v>0.1164493405570586</v>
       </c>
       <c r="E143" t="n">
-        <v>4896.378702799479</v>
+        <v>714.2823486328125</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2829,16 +2829,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1650955726703008</v>
+        <v>0.1136542012294133</v>
       </c>
       <c r="C144" t="n">
-        <v>4754.35546875</v>
+        <v>698.6360677083334</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1752992458641529</v>
+        <v>0.1479636716345946</v>
       </c>
       <c r="E144" t="n">
-        <v>4754.36572265625</v>
+        <v>698.6703643798828</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2846,16 +2846,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1663395712773005</v>
+        <v>0.1486175010601679</v>
       </c>
       <c r="C145" t="n">
-        <v>4615.983235677083</v>
+        <v>683.3734741210938</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1765965769688288</v>
+        <v>0.09868558123707771</v>
       </c>
       <c r="E145" t="n">
-        <v>4615.993448893229</v>
+        <v>683.3235321044922</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2863,16 +2863,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1674659053484599</v>
+        <v>0.1158064678311348</v>
       </c>
       <c r="C146" t="n">
-        <v>4481.169921875</v>
+        <v>668.3849690755209</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1776901017874479</v>
+        <v>0.11485638966163</v>
       </c>
       <c r="E146" t="n">
-        <v>4481.180135091146</v>
+        <v>668.384023030599</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2880,16 +2880,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1680028239885966</v>
+        <v>0.1089138761162758</v>
       </c>
       <c r="C147" t="n">
-        <v>4349.8359375</v>
+        <v>653.7535196940104</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1785021604349216</v>
+        <v>0.1029691640287638</v>
       </c>
       <c r="E147" t="n">
-        <v>4349.846435546875</v>
+        <v>653.7475636800131</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2897,16 +2897,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1685933123032252</v>
+        <v>0.1306628460685412</v>
       </c>
       <c r="C148" t="n">
-        <v>4221.902669270833</v>
+        <v>639.4765421549479</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1792748874674241</v>
+        <v>0.1298434635003408</v>
       </c>
       <c r="E148" t="n">
-        <v>4221.913167317708</v>
+        <v>639.4757232666016</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2914,16 +2914,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1695126394430796</v>
+        <v>0.1214514101545016</v>
       </c>
       <c r="C149" t="n">
-        <v>4097.292154947917</v>
+        <v>625.486572265625</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1802396674950918</v>
+        <v>0.137294864282012</v>
       </c>
       <c r="E149" t="n">
-        <v>4097.302815755208</v>
+        <v>625.5024108886719</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2931,16 +2931,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1697100003560384</v>
+        <v>0.1372268696626028</v>
       </c>
       <c r="C150" t="n">
-        <v>3975.929931640625</v>
+        <v>611.8331502278646</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1809712667018175</v>
+        <v>0.1112145477284988</v>
       </c>
       <c r="E150" t="n">
-        <v>3975.941223144531</v>
+        <v>611.8071339925131</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2948,16 +2948,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1699530730644862</v>
+        <v>0.1254480903347333</v>
       </c>
       <c r="C151" t="n">
-        <v>3857.74267578125</v>
+        <v>598.4588216145834</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1815089602023363</v>
+        <v>0.1002847272902727</v>
       </c>
       <c r="E151" t="n">
-        <v>3857.754272460938</v>
+        <v>598.4336598714193</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2965,16 +2965,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1723137895266215</v>
+        <v>0.1940505132079124</v>
       </c>
       <c r="C152" t="n">
-        <v>3742.658365885417</v>
+        <v>585.4635823567709</v>
       </c>
       <c r="D152" t="n">
-        <v>0.183163375283281</v>
+        <v>0.1249490467210611</v>
       </c>
       <c r="E152" t="n">
-        <v>3742.669230143229</v>
+        <v>585.3944753011068</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2982,16 +2982,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1735993226369222</v>
+        <v>0.1844994351267815</v>
       </c>
       <c r="C153" t="n">
-        <v>3630.604736328125</v>
+        <v>572.6845499674479</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1845029008885225</v>
+        <v>0.1299029644578695</v>
       </c>
       <c r="E153" t="n">
-        <v>3630.615681966146</v>
+        <v>572.6299641927084</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2999,16 +2999,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1738718698422114</v>
+        <v>0.2053104266524315</v>
       </c>
       <c r="C154" t="n">
-        <v>3521.512451171875</v>
+        <v>560.2267252604166</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1850887710849444</v>
+        <v>0.1532679007699092</v>
       </c>
       <c r="E154" t="n">
-        <v>3521.523681640625</v>
+        <v>560.1746877034506</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3016,16 +3016,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1746647357940674</v>
+        <v>0.1567333489656448</v>
       </c>
       <c r="C155" t="n">
-        <v>3415.314290364583</v>
+        <v>547.9799194335938</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1857991336534421</v>
+        <v>0.1078786340852578</v>
       </c>
       <c r="E155" t="n">
-        <v>3415.325459798177</v>
+        <v>547.9310607910156</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3033,16 +3033,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1755318741003672</v>
+        <v>0.1723135337233543</v>
       </c>
       <c r="C156" t="n">
-        <v>3311.943115234375</v>
+        <v>536.0732625325521</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1869539320468903</v>
+        <v>0.1284478362649679</v>
       </c>
       <c r="E156" t="n">
-        <v>3311.954528808594</v>
+        <v>536.0293884277344</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3050,16 +3050,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1762137413024902</v>
+        <v>0.1529121821125349</v>
       </c>
       <c r="C157" t="n">
-        <v>3211.332763671875</v>
+        <v>524.4004720052084</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1875927125414213</v>
+        <v>0.1268211777011553</v>
       </c>
       <c r="E157" t="n">
-        <v>3211.344116210938</v>
+        <v>524.3743845621744</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3067,16 +3067,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1771733164787292</v>
+        <v>0.213640292485555</v>
       </c>
       <c r="C158" t="n">
-        <v>3113.420084635417</v>
+        <v>513.0718587239584</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1886237462361654</v>
+        <v>0.1553936625520388</v>
       </c>
       <c r="E158" t="n">
-        <v>3113.431518554688</v>
+        <v>513.0136108398438</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3084,16 +3084,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1782073130210241</v>
+        <v>0.1284297679861387</v>
       </c>
       <c r="C159" t="n">
-        <v>3018.14111328125</v>
+        <v>501.8567097981771</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1896202222754558</v>
+        <v>0.1239394657313824</v>
       </c>
       <c r="E159" t="n">
-        <v>3018.152506510417</v>
+        <v>501.8522109985352</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3101,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1782676428556442</v>
+        <v>0.1355317446092764</v>
       </c>
       <c r="C160" t="n">
-        <v>2925.435872395833</v>
+        <v>490.9886474609375</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1899898778647184</v>
+        <v>0.1885086974749962</v>
       </c>
       <c r="E160" t="n">
-        <v>2925.447530110677</v>
+        <v>491.041628519694</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3118,16 +3118,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1794206847747167</v>
+        <v>0.1719057013591131</v>
       </c>
       <c r="C161" t="n">
-        <v>2835.242594401042</v>
+        <v>480.3978271484375</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1909632800767819</v>
+        <v>0.1213506975521644</v>
       </c>
       <c r="E161" t="n">
-        <v>2835.254170735677</v>
+        <v>480.3472747802734</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3135,16 +3135,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1808910220861435</v>
+        <v>0.1387791807452838</v>
       </c>
       <c r="C162" t="n">
-        <v>2747.503662109375</v>
+        <v>469.9793294270833</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1923432859281699</v>
+        <v>0.1206964800755183</v>
       </c>
       <c r="E162" t="n">
-        <v>2747.515096028646</v>
+        <v>469.9612452189128</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3152,16 +3152,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1814718743165334</v>
+        <v>0.1499607798953851</v>
       </c>
       <c r="C163" t="n">
-        <v>2662.159912109375</v>
+        <v>459.8410339355469</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1930343192070723</v>
+        <v>0.115538451820612</v>
       </c>
       <c r="E163" t="n">
-        <v>2662.171529134115</v>
+        <v>459.8066075642903</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3169,16 +3169,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1817902078231176</v>
+        <v>0.1396085495750109</v>
       </c>
       <c r="C164" t="n">
-        <v>2579.154378255208</v>
+        <v>449.9138997395833</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1935126148164272</v>
+        <v>0.1056174623469512</v>
       </c>
       <c r="E164" t="n">
-        <v>2579.166158040365</v>
+        <v>449.8799082438151</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3186,16 +3186,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1816138128439585</v>
+        <v>0.1351226021846136</v>
       </c>
       <c r="C165" t="n">
-        <v>2498.4326171875</v>
+        <v>440.2209370930989</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1937789507210255</v>
+        <v>0.1082744350035985</v>
       </c>
       <c r="E165" t="n">
-        <v>2498.444763183594</v>
+        <v>440.1940892537435</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3203,16 +3203,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1826530595620473</v>
+        <v>0.1310776596268018</v>
       </c>
       <c r="C166" t="n">
-        <v>2419.939778645833</v>
+        <v>430.7514953613281</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1945375502109528</v>
+        <v>0.103190661718448</v>
       </c>
       <c r="E166" t="n">
-        <v>2419.951639811198</v>
+        <v>430.7236124674479</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3220,16 +3220,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1834376355012258</v>
+        <v>0.1417762661973635</v>
       </c>
       <c r="C167" t="n">
-        <v>2343.621907552083</v>
+        <v>421.5159200032552</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1953525089969238</v>
+        <v>0.1015722192823887</v>
       </c>
       <c r="E167" t="n">
-        <v>2343.633870442708</v>
+        <v>421.4757181803386</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3237,16 +3237,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1826155533393224</v>
+        <v>0.140961396197478</v>
       </c>
       <c r="C168" t="n">
-        <v>2269.427001953125</v>
+        <v>412.4821472167969</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1952804668496052</v>
+        <v>0.1070622162272533</v>
       </c>
       <c r="E168" t="n">
-        <v>2269.439656575521</v>
+        <v>412.4482447306315</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3254,16 +3254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1827826748291651</v>
+        <v>0.1229891652862231</v>
       </c>
       <c r="C169" t="n">
-        <v>2197.304606119792</v>
+        <v>403.6396789550781</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1954922080039978</v>
+        <v>0.1123336981981993</v>
       </c>
       <c r="E169" t="n">
-        <v>2197.317362467448</v>
+        <v>403.6290283203125</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1848521679639816</v>
+        <v>0.1360878398021062</v>
       </c>
       <c r="C170" t="n">
-        <v>2127.20556640625</v>
+        <v>395.0327555338542</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1969152092933655</v>
+        <v>0.1052659812072913</v>
       </c>
       <c r="E170" t="n">
-        <v>2127.217712402344</v>
+        <v>395.0019302368164</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3288,16 +3288,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1852270513772964</v>
+        <v>0.1998601406812668</v>
       </c>
       <c r="C171" t="n">
-        <v>2059.078125</v>
+        <v>386.6761576334636</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1976286166658004</v>
+        <v>0.1323608277986447</v>
       </c>
       <c r="E171" t="n">
-        <v>2059.09043375651</v>
+        <v>386.608647664388</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3305,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1859342654546102</v>
+        <v>0.2757616713643074</v>
       </c>
       <c r="C172" t="n">
-        <v>1992.876139322917</v>
+        <v>378.5286254882812</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1981418095529079</v>
+        <v>0.230196042607228</v>
       </c>
       <c r="E172" t="n">
-        <v>1992.888326009115</v>
+        <v>378.4830627441406</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1871871103843053</v>
+        <v>0.145785965025425</v>
       </c>
       <c r="C173" t="n">
-        <v>1928.552205403646</v>
+        <v>370.3667704264323</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1991820776214202</v>
+        <v>0.1139646923790375</v>
       </c>
       <c r="E173" t="n">
-        <v>1928.564168294271</v>
+        <v>370.3349431355794</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1876231382290522</v>
+        <v>0.1512707670529684</v>
       </c>
       <c r="C174" t="n">
-        <v>1866.059733072917</v>
+        <v>362.5271606445312</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1995953327665726</v>
+        <v>0.104916876492401</v>
       </c>
       <c r="E174" t="n">
-        <v>1866.07167561849</v>
+        <v>362.4807993570964</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3356,16 +3356,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1876969039440155</v>
+        <v>0.2058769340316454</v>
       </c>
       <c r="C175" t="n">
-        <v>1805.353352864583</v>
+        <v>354.9187316894531</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2001683159420888</v>
+        <v>0.14470657457908</v>
       </c>
       <c r="E175" t="n">
-        <v>1805.365804036458</v>
+        <v>354.8575668334961</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1867976685365041</v>
+        <v>0.2747887372970581</v>
       </c>
       <c r="C176" t="n">
-        <v>1746.389282226562</v>
+        <v>347.5039469401042</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1997915258010229</v>
+        <v>0.1994700779517492</v>
       </c>
       <c r="E176" t="n">
-        <v>1746.402323404948</v>
+        <v>347.4286270141602</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3390,16 +3390,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1879091213146845</v>
+        <v>0.1611912474036217</v>
       </c>
       <c r="C177" t="n">
-        <v>1689.125528971354</v>
+        <v>340.0827026367188</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2005987322578827</v>
+        <v>0.1175339904924234</v>
       </c>
       <c r="E177" t="n">
-        <v>1689.138203938802</v>
+        <v>340.0390446980794</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3407,16 +3407,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1891844968001048</v>
+        <v>0.1317761540412903</v>
       </c>
       <c r="C178" t="n">
-        <v>1633.518798828125</v>
+        <v>332.91650390625</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2015396685649951</v>
+        <v>0.1057474830498298</v>
       </c>
       <c r="E178" t="n">
-        <v>1633.531138102214</v>
+        <v>332.8904724121094</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3424,16 +3424,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1891801208257675</v>
+        <v>0.2256940603256226</v>
       </c>
       <c r="C179" t="n">
-        <v>1579.527221679688</v>
+        <v>326.0429178873698</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2018346879631281</v>
+        <v>0.1716340091079473</v>
       </c>
       <c r="E179" t="n">
-        <v>1579.539845784505</v>
+        <v>325.9888661702474</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3441,16 +3441,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1890042275190353</v>
+        <v>0.1131096941729387</v>
       </c>
       <c r="C180" t="n">
-        <v>1527.110270182292</v>
+        <v>319.1298522949219</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2019063383340836</v>
+        <v>0.1562210960934559</v>
       </c>
       <c r="E180" t="n">
-        <v>1527.123168945312</v>
+        <v>319.1729787190755</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1895155757665634</v>
+        <v>0.1291173100471497</v>
       </c>
       <c r="C181" t="n">
-        <v>1476.229166666667</v>
+        <v>312.5040588378906</v>
       </c>
       <c r="D181" t="n">
-        <v>0.202324140816927</v>
+        <v>0.1040152062972387</v>
       </c>
       <c r="E181" t="n">
-        <v>1476.241984049479</v>
+        <v>312.4789581298828</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3475,16 +3475,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1910158097743988</v>
+        <v>0.1768123991787434</v>
       </c>
       <c r="C182" t="n">
-        <v>1426.844970703125</v>
+        <v>306.0665588378906</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2034562081098557</v>
+        <v>0.2430889358123144</v>
       </c>
       <c r="E182" t="n">
-        <v>1426.857381184896</v>
+        <v>306.1328277587891</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3492,16 +3492,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1917517483234406</v>
+        <v>0.1800088360905647</v>
       </c>
       <c r="C183" t="n">
-        <v>1378.918701171875</v>
+        <v>299.7395528157552</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2041649241000414</v>
+        <v>0.1301910858601332</v>
       </c>
       <c r="E183" t="n">
-        <v>1378.93110148112</v>
+        <v>299.6897303263347</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1915084918340047</v>
+        <v>0.1784589439630508</v>
       </c>
       <c r="C184" t="n">
-        <v>1332.413452148438</v>
+        <v>293.5566609700521</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2043779833863179</v>
+        <v>0.1267860985050599</v>
       </c>
       <c r="E184" t="n">
-        <v>1332.426300048828</v>
+        <v>293.5049947102864</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3526,16 +3526,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1922940462827682</v>
+        <v>0.2086340387662252</v>
       </c>
       <c r="C185" t="n">
-        <v>1287.293253580729</v>
+        <v>287.5517069498698</v>
       </c>
       <c r="D185" t="n">
-        <v>0.20475867887338</v>
+        <v>0.1487544551491737</v>
       </c>
       <c r="E185" t="n">
-        <v>1287.30571492513</v>
+        <v>287.49183400472</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3543,16 +3543,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1928883145252863</v>
+        <v>0.2765241116285324</v>
       </c>
       <c r="C186" t="n">
-        <v>1243.522338867188</v>
+        <v>281.7284952799479</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2054934253295263</v>
+        <v>0.1996766217052937</v>
       </c>
       <c r="E186" t="n">
-        <v>1243.534962972005</v>
+        <v>281.6516418457031</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3560,16 +3560,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1933862616618474</v>
+        <v>0.2259348953763644</v>
       </c>
       <c r="C187" t="n">
-        <v>1201.06591796875</v>
+        <v>275.9272562662761</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2060215094437202</v>
+        <v>0.1597152507553498</v>
       </c>
       <c r="E187" t="n">
-        <v>1201.078582763672</v>
+        <v>275.8610382080078</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3577,16 +3577,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1949273993571599</v>
+        <v>0.163935013115406</v>
       </c>
       <c r="C188" t="n">
-        <v>1159.890340169271</v>
+        <v>270.2523803710938</v>
       </c>
       <c r="D188" t="n">
-        <v>0.2071175078550974</v>
+        <v>0.1277068667113781</v>
       </c>
       <c r="E188" t="n">
-        <v>1159.902547200521</v>
+        <v>270.2161458333333</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3594,16 +3594,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1963103512922923</v>
+        <v>0.1421043202280998</v>
       </c>
       <c r="C189" t="n">
-        <v>1119.961710611979</v>
+        <v>264.7508748372396</v>
       </c>
       <c r="D189" t="n">
-        <v>0.208125169078509</v>
+        <v>0.111747644841671</v>
       </c>
       <c r="E189" t="n">
-        <v>1119.973500569661</v>
+        <v>264.7205149332682</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3611,16 +3611,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1967639923095703</v>
+        <v>0.1362577627102534</v>
       </c>
       <c r="C190" t="n">
-        <v>1081.247029622396</v>
+        <v>259.3960266113281</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2088799364864826</v>
+        <v>0.1162318711479505</v>
       </c>
       <c r="E190" t="n">
-        <v>1081.259155273438</v>
+        <v>259.3759943644206</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3628,16 +3628,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1970846702655157</v>
+        <v>0.1481733446319898</v>
       </c>
       <c r="C191" t="n">
-        <v>1043.715047200521</v>
+        <v>254.1857452392578</v>
       </c>
       <c r="D191" t="n">
-        <v>0.209023542702198</v>
+        <v>0.116081136589249</v>
       </c>
       <c r="E191" t="n">
-        <v>1043.726979573568</v>
+        <v>254.1536496480306</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3645,16 +3645,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1968957334756851</v>
+        <v>0.1232689594229062</v>
       </c>
       <c r="C192" t="n">
-        <v>1007.334228515625</v>
+        <v>249.0635477701823</v>
       </c>
       <c r="D192" t="n">
-        <v>0.2092182381699483</v>
+        <v>0.1275390448669592</v>
       </c>
       <c r="E192" t="n">
-        <v>1007.346552530924</v>
+        <v>249.0678176879883</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3662,16 +3662,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1978410184383392</v>
+        <v>0.1405037964383761</v>
       </c>
       <c r="C193" t="n">
-        <v>972.0748494466146</v>
+        <v>244.1056823730469</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2098525427281857</v>
+        <v>0.1108312904834747</v>
       </c>
       <c r="E193" t="n">
-        <v>972.0868733723959</v>
+        <v>244.0760103861491</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3679,16 +3679,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1980338046948115</v>
+        <v>0.1767913649479548</v>
       </c>
       <c r="C194" t="n">
-        <v>937.9062093098959</v>
+        <v>239.2857666015625</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2101179901510477</v>
+        <v>0.1252971086651087</v>
       </c>
       <c r="E194" t="n">
-        <v>937.9183044433594</v>
+        <v>239.2342745463053</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3696,16 +3696,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1975873609383901</v>
+        <v>0.1516482482353846</v>
       </c>
       <c r="C195" t="n">
-        <v>904.7987263997396</v>
+        <v>234.5211690266927</v>
       </c>
       <c r="D195" t="n">
-        <v>0.210070206473271</v>
+        <v>0.1071689749757449</v>
       </c>
       <c r="E195" t="n">
-        <v>904.8112080891927</v>
+        <v>234.476692199707</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3713,16 +3713,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1979196965694427</v>
+        <v>0.1862869113683701</v>
       </c>
       <c r="C196" t="n">
-        <v>872.7257080078125</v>
+        <v>229.9305521647135</v>
       </c>
       <c r="D196" t="n">
-        <v>0.2103816475719213</v>
+        <v>0.1263679144904017</v>
       </c>
       <c r="E196" t="n">
-        <v>872.7381540934244</v>
+        <v>229.8706321716309</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3730,16 +3730,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1978207776943842</v>
+        <v>0.1344435103237629</v>
       </c>
       <c r="C197" t="n">
-        <v>841.6580810546875</v>
+        <v>225.3651224772135</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2104145617534717</v>
+        <v>0.1907600077490012</v>
       </c>
       <c r="E197" t="n">
-        <v>841.6706848144531</v>
+        <v>225.4214452107747</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3747,16 +3747,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.198085422317187</v>
+        <v>0.1328453943133354</v>
       </c>
       <c r="C198" t="n">
-        <v>811.5687662760416</v>
+        <v>220.9588775634766</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2105700777222713</v>
+        <v>0.1356336952497562</v>
       </c>
       <c r="E198" t="n">
-        <v>811.5812276204427</v>
+        <v>220.9616661071777</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3764,16 +3764,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1999461303154627</v>
+        <v>0.1590138574441274</v>
       </c>
       <c r="C199" t="n">
-        <v>782.4319254557291</v>
+        <v>216.6857147216797</v>
       </c>
       <c r="D199" t="n">
-        <v>0.2118217622240385</v>
+        <v>0.113583500807484</v>
       </c>
       <c r="E199" t="n">
-        <v>782.4438171386719</v>
+        <v>216.6402867635091</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3781,16 +3781,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1996733297904333</v>
+        <v>0.146661601960659</v>
       </c>
       <c r="C200" t="n">
-        <v>754.2202351888021</v>
+        <v>212.4786173502604</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2118348311632872</v>
+        <v>0.1163084879517555</v>
       </c>
       <c r="E200" t="n">
-        <v>754.2324066162109</v>
+        <v>212.4482650756836</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1984097311894099</v>
+        <v>0.2410640890399615</v>
       </c>
       <c r="C201" t="n">
-        <v>726.9083048502604</v>
+        <v>208.4778645833333</v>
       </c>
       <c r="D201" t="n">
-        <v>0.2112249874820312</v>
+        <v>0.1660186120619377</v>
       </c>
       <c r="E201" t="n">
-        <v>726.921132405599</v>
+        <v>208.4028180440267</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3842,7 @@
         <v>0.1192333333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4477620720863342</v>
+        <v>0.1818171143531799</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>0.1490888888888889</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4651076197624207</v>
+        <v>0.1515710651874542</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>0.1775633333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4409182667732239</v>
+        <v>0.3017697334289551</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>0.1945238095238095</v>
       </c>
       <c r="B5" t="n">
-        <v>0.414674699306488</v>
+        <v>0.1352823078632355</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>0.2202944444444445</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4314509034156799</v>
+        <v>0.1838996112346649</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>0.2505045454545454</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4536822438240051</v>
+        <v>0.5398855209350586</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>0.277601282051282</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4022453427314758</v>
+        <v>0.3615258932113647</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>0.3046344444444445</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4230108261108398</v>
+        <v>0.1079281345009804</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>0.3257166666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4351632595062256</v>
+        <v>0.1621660590171814</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>0.3341956140350877</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4156570434570312</v>
+        <v>0.2664020955562592</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>0.3416626984126985</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4469125866889954</v>
+        <v>0.1324780285358429</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>0.345522463768116</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4664128422737122</v>
+        <v>0.07880533486604691</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>0.3481466666666668</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5434542298316956</v>
+        <v>0.1550439298152924</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>0.3549956790123457</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4980219006538391</v>
+        <v>0.1629309803247452</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>0.363182183908046</v>
       </c>
       <c r="B16" t="n">
-        <v>0.403984010219574</v>
+        <v>0.1132509186863899</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>0.3764873563218391</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4420046806335449</v>
+        <v>0.2753986418247223</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>0.3897994252873563</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5273435711860657</v>
+        <v>0.139961764216423</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>0.4014954022988506</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5048666000366211</v>
+        <v>0.150313138961792</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>0.4092097701149425</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5439929962158203</v>
+        <v>0.2968882620334625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>0.4150586206896552</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5560246109962463</v>
+        <v>0.3805830180644989</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>0.4200925287356322</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6064767837524414</v>
+        <v>0.1733883917331696</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>0.4210741379310345</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4948493242263794</v>
+        <v>0.4173516631126404</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>0.4212034482758621</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5398772358894348</v>
+        <v>0.2841350436210632</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>0.4191971264367816</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5152290463447571</v>
+        <v>0.3415307402610779</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>0.4154270114942529</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5412349700927734</v>
+        <v>0.4774583876132965</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>0.4107833333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4719246029853821</v>
+        <v>0.3395915627479553</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>0.4077212643678161</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4675551652908325</v>
+        <v>0.1531626880168915</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>0.4036827586206897</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4651807546615601</v>
+        <v>0.3758100271224976</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>0.398082183908046</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4662138819694519</v>
+        <v>0.06984715163707733</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>0.3926948275862069</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4647676348686218</v>
+        <v>0.02759233117103577</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>0.3866890804597701</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4603748321533203</v>
+        <v>0.3619967103004456</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>0.3810270114942528</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4807892441749573</v>
+        <v>0.3226334154605865</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>0.37675</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5036975741386414</v>
+        <v>0.258768767118454</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>0.3732701149425287</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4978893995285034</v>
+        <v>0.1000314950942993</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>0.3685293103448276</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5163142085075378</v>
+        <v>0.350250244140625</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>0.36195</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4792385101318359</v>
+        <v>0.3821181058883667</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>0.3557885057471264</v>
       </c>
       <c r="B38" t="n">
-        <v>0.507073700428009</v>
+        <v>0.4972405433654785</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>0.3512775862068965</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5085065960884094</v>
+        <v>0.09874233603477478</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>0.3469396551724138</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5362070202827454</v>
+        <v>0.316092848777771</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>0.3414729885057471</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4903884530067444</v>
+        <v>0.2651263475418091</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>0.3355672413793104</v>
       </c>
       <c r="B42" t="n">
-        <v>0.529959499835968</v>
+        <v>0.2034457921981812</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>0.3307109195402299</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5289589762687683</v>
+        <v>0.1710414290428162</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>0.3262729885057471</v>
       </c>
       <c r="B44" t="n">
-        <v>0.570508599281311</v>
+        <v>0.08616465330123901</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>0.3219293103448275</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4944572448730469</v>
+        <v>0.1593343913555145</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>0.3185563218390804</v>
       </c>
       <c r="B46" t="n">
-        <v>0.566834032535553</v>
+        <v>0.2715255916118622</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>0.3134724137931034</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4989668726921082</v>
+        <v>0.1120096892118454</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>0.308530459770115</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5180470943450928</v>
+        <v>0.4157422780990601</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>0.3077706896551724</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5118057131767273</v>
+        <v>0.3805764615535736</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>0.3085097701149425</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4419546127319336</v>
+        <v>0.1232827827334404</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>0.311433908045977</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4692742824554443</v>
+        <v>0.3387994468212128</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>0.3189</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5220054984092712</v>
+        <v>0.3063358664512634</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>0.327998275862069</v>
       </c>
       <c r="B53" t="n">
-        <v>0.467549204826355</v>
+        <v>0.3109322488307953</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>0.3391028735632184</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5498827695846558</v>
+        <v>0.0674973726272583</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>0.3508040229885057</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4696718454360962</v>
+        <v>0.3821180760860443</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>0.3632316091954023</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5150587558746338</v>
+        <v>0.1075694337487221</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>0.3738252873563218</v>
       </c>
       <c r="B57" t="n">
-        <v>0.480891227722168</v>
+        <v>0.4322045147418976</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>0.3824913793103448</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4773960113525391</v>
+        <v>0.1030521243810654</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>0.3894775862068965</v>
       </c>
       <c r="B59" t="n">
-        <v>0.527585506439209</v>
+        <v>0.09374061226844788</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>0.3941091954022988</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4419551491737366</v>
+        <v>0.381599098443985</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>0.3961287356321839</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4859999418258667</v>
+        <v>0.1276885271072388</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>0.3981137931034483</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4247808456420898</v>
+        <v>0.3040050566196442</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>0.4000195402298851</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3934047222137451</v>
+        <v>0.01231702417135239</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>0.4024931034482758</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4593873620033264</v>
+        <v>0.00267038494348526</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>0.4048022988505747</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4096485376358032</v>
+        <v>0.3546232879161835</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>0.4094201149425287</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4492875933647156</v>
+        <v>0.1032762601971626</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>0.4150580459770114</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4266385436058044</v>
+        <v>0.1064039617776871</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>0.419585632183908</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4575664401054382</v>
+        <v>0.2127067148685455</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>0.4244086206896551</v>
       </c>
       <c r="B69" t="n">
-        <v>0.485287606716156</v>
+        <v>0.1365406811237335</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>0.4298201149425287</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4513450264930725</v>
+        <v>0.06395316869020462</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>0.4349988505747126</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4789120554924011</v>
+        <v>0.102270171046257</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>0.4376879310344827</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4059752821922302</v>
+        <v>0.3192194998264313</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>0.4388293103448275</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5239315032958984</v>
+        <v>0.4285381436347961</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>0.4388114942528736</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4904795289039612</v>
+        <v>0.4263841211795807</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>0.4371045977011494</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4842736124992371</v>
+        <v>0.04681607335805893</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>0.4379580459770114</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5085882544517517</v>
+        <v>0.1836139857769012</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>0.4383160919540229</v>
       </c>
       <c r="B77" t="n">
-        <v>0.482215404510498</v>
+        <v>0.1804414093494415</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>0.4376689655172414</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5055917501449585</v>
+        <v>0.4236172139644623</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>0.4391545977011494</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5623593926429749</v>
+        <v>0.5073686242103577</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>0.4421057471264367</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5636380314826965</v>
+        <v>0.4285992980003357</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>0.4450890804597701</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5267227292060852</v>
+        <v>0.2956179082393646</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>0.4464643678160919</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4855736494064331</v>
+        <v>0.274142324924469</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>0.447966091954023</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5057524442672729</v>
+        <v>0.4691673815250397</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>0.449382183908046</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5257399678230286</v>
+        <v>0.4086931645870209</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>0.4530155172413792</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5336979031562805</v>
+        <v>0.4557912349700928</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>0.4590120689655172</v>
       </c>
       <c r="B86" t="n">
-        <v>0.555134654045105</v>
+        <v>0.4367924630641937</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>0.4668396551724138</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5482800602912903</v>
+        <v>0.1879012882709503</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>0.4764936781609196</v>
       </c>
       <c r="B88" t="n">
-        <v>0.539370059967041</v>
+        <v>0.08381279557943344</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>0.48935</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5611665844917297</v>
+        <v>0.4170224368572235</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>0.5043419540229885</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4641716480255127</v>
+        <v>0.1510129272937775</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>0.5202988505747126</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5489537119865417</v>
+        <v>0.1918183565139771</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>0.5346902298850574</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5001251697540283</v>
+        <v>0.4638127386569977</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>0.5464528735632185</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5160188674926758</v>
+        <v>0.5374236106872559</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>0.5563712643678161</v>
       </c>
       <c r="B94" t="n">
-        <v>0.60499507188797</v>
+        <v>0.4014261364936829</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>0.5641028735632183</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5920212268829346</v>
+        <v>0.5648803114891052</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>0.5722787356321839</v>
       </c>
       <c r="B96" t="n">
-        <v>0.533058762550354</v>
+        <v>0.4572354853153229</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>0.578233908045977</v>
       </c>
       <c r="B97" t="n">
-        <v>0.548438549041748</v>
+        <v>0.2579291760921478</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>0.5825206896551723</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4540859460830688</v>
+        <v>0.4098609685897827</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>0.5899620689655172</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5262825489044189</v>
+        <v>0.524053156375885</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>0.5981896551724138</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5978745222091675</v>
+        <v>0.4958714246749878</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>0.6104068965517243</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5593535304069519</v>
+        <v>0.5113358497619629</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>0.6255580459770115</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5368531346321106</v>
+        <v>0.4313921928405762</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>0.6424011494252875</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5238564014434814</v>
+        <v>0.5806485414505005</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>0.661157471264368</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6395573616027832</v>
+        <v>0.3278555572032928</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>0.6803965517241379</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6723219156265259</v>
+        <v>0.3838608264923096</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>0.701371264367816</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6413356065750122</v>
+        <v>0.6702824831008911</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>0.722021264367816</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5932438969612122</v>
+        <v>0.2783023118972778</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>0.7407643678160918</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6887140274047852</v>
+        <v>0.567550003528595</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>0.7568729885057469</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7176526784896851</v>
+        <v>0.2328744828701019</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>0.7710499999999998</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6452265381813049</v>
+        <v>0.2392877042293549</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>0.7847103448275861</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6863057017326355</v>
+        <v>0.5140788555145264</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>0.7973994252873561</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5573745369911194</v>
+        <v>0.3101474642753601</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>0.8095224137931031</v>
       </c>
       <c r="B113" t="n">
-        <v>0.739770233631134</v>
+        <v>0.342594712972641</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>0.8189488505747122</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6076472997665405</v>
+        <v>0.4704161286354065</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>0.826033333333333</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5691171884536743</v>
+        <v>0.4417365193367004</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>0.8325080459770111</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5091471076011658</v>
+        <v>0.4083073139190674</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>0.8392218390804594</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5630764961242676</v>
+        <v>0.1676355600357056</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>0.8445787356321836</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5162938833236694</v>
+        <v>0.3021760582923889</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>0.8501488505747122</v>
       </c>
       <c r="B119" t="n">
-        <v>0.579146683216095</v>
+        <v>0.3543829917907715</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>0.8545712643678158</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6292187571525574</v>
+        <v>0.3314180672168732</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>0.8612999999999997</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5820541381835938</v>
+        <v>0.3120497167110443</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>0.8701563218390803</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5950875878334045</v>
+        <v>0.5368848443031311</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>0.8814637931034481</v>
       </c>
       <c r="B123" t="n">
-        <v>0.628174901008606</v>
+        <v>0.4485742151737213</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>0.8945580459770115</v>
       </c>
       <c r="B124" t="n">
-        <v>0.6155992150306702</v>
+        <v>0.2989055216312408</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>0.9064333333333333</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6872128844261169</v>
+        <v>0.5425727367401123</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>0.9214310344827588</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6185081601142883</v>
+        <v>0.4869047105312347</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>0.9378908045977012</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7320334315299988</v>
+        <v>0.7276768088340759</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>0.9507597701149425</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6893367767333984</v>
+        <v>0.696402907371521</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>0.9623103448275863</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6755409836769104</v>
+        <v>0.3966878056526184</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>0.9707614942528736</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7158623337745667</v>
+        <v>0.5355775356292725</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>0.9771229885057473</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6491061449050903</v>
+        <v>0.8069232702255249</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>0.9816954022988508</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7116610407829285</v>
+        <v>0.513822078704834</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>0.9845718390804601</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6459050178527832</v>
+        <v>0.7462020516395569</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>0.9855333333333337</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6219220161437988</v>
+        <v>0.8062611222267151</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>0.9854954022988509</v>
       </c>
       <c r="B135" t="n">
-        <v>0.665378212928772</v>
+        <v>0.9008333683013916</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>0.9854574712643681</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5681135058403015</v>
+        <v>0.3730764091014862</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>0.985457471264368</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7933804392814636</v>
+        <v>0.768842875957489</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>0.9850586206896553</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6686767339706421</v>
+        <v>0.8541431427001953</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>0.9846597701149429</v>
       </c>
       <c r="B139" t="n">
-        <v>0.69672030210495</v>
+        <v>0.6711229681968689</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>0.9842609195402302</v>
       </c>
       <c r="B140" t="n">
-        <v>0.664804995059967</v>
+        <v>0.7667050361633301</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>0.9838620689655176</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6996179223060608</v>
+        <v>0.471477210521698</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>0.9834632183908051</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6933435201644897</v>
+        <v>0.5925911068916321</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>0.9823982758620694</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6756652593612671</v>
+        <v>0.5712923407554626</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>0.9790908045977016</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6801385283470154</v>
+        <v>0.8956668376922607</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>0.9756959770114946</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6274689435958862</v>
+        <v>0.7711167335510254</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>0.9716477011494256</v>
       </c>
       <c r="B146" t="n">
-        <v>0.6334811449050903</v>
+        <v>0.7812212109565735</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>0.9681885057471267</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7653802037239075</v>
+        <v>0.4975894689559937</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>0.9650545977011497</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6274186968803406</v>
+        <v>0.8314697742462158</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>0.9611781609195404</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6681733727455139</v>
+        <v>0.6189403533935547</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>0.9573017241379311</v>
       </c>
       <c r="B150" t="n">
-        <v>0.7617295980453491</v>
+        <v>0.777241587638855</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>0.9562775862068966</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6775632500648499</v>
+        <v>0.4613585472106934</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>0.9555758620689656</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5766347646713257</v>
+        <v>0.7130938172340393</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>0.9560137931034484</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6706019043922424</v>
+        <v>0.7535004019737244</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>0.956451724137931</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6345515251159668</v>
+        <v>0.6553775668144226</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>0.9559201149425287</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6932213306427002</v>
+        <v>0.7266900539398193</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>0.9565091954022986</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6805341243743896</v>
+        <v>0.8028728365898132</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>0.9572505747126434</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6175540089607239</v>
+        <v>0.5615448355674744</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>0.9577637931034481</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7082298994064331</v>
+        <v>0.6715022325515747</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>0.9582770114942526</v>
       </c>
       <c r="B159" t="n">
-        <v>0.6787776350975037</v>
+        <v>0.7315425276756287</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>0.9587902298850571</v>
       </c>
       <c r="B160" t="n">
-        <v>0.630715548992157</v>
+        <v>0.6251569986343384</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>0.9593034482758618</v>
       </c>
       <c r="B161" t="n">
-        <v>0.6798010468482971</v>
+        <v>0.7224099636077881</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>0.9598166666666663</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6390186548233032</v>
+        <v>0.433139443397522</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>0.9601017241379307</v>
       </c>
       <c r="B163" t="n">
-        <v>0.6982337236404419</v>
+        <v>0.3656870126724243</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>0.9601396551724134</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6677659153938293</v>
+        <v>0.9101361036300659</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>0.9601775862068961</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7212629914283752</v>
+        <v>0.6788593530654907</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>0.960177586206896</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6417858600616455</v>
+        <v>0.4498383104801178</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>0.9605764367816085</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6817668080329895</v>
+        <v>0.6831706762313843</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>0.9609752873563213</v>
       </c>
       <c r="B168" t="n">
-        <v>0.7584636211395264</v>
+        <v>0.5023505091667175</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>0.9613741379310339</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6770789623260498</v>
+        <v>0.5743501782417297</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>0.9617729885057467</v>
       </c>
       <c r="B170" t="n">
-        <v>0.7145039439201355</v>
+        <v>0.8443569540977478</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>0.9621718390804592</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7034258842468262</v>
+        <v>0.6214978098869324</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>0.9632367816091949</v>
       </c>
       <c r="B172" t="n">
-        <v>0.729022204875946</v>
+        <v>0.6299330592155457</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>0.9665442528735627</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6612429022789001</v>
+        <v>0.6130586862564087</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>0.9699390804597696</v>
       </c>
       <c r="B174" t="n">
-        <v>0.621406614780426</v>
+        <v>0.786913275718689</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>0.9739873563218386</v>
       </c>
       <c r="B175" t="n">
-        <v>0.712592601776123</v>
+        <v>0.441140204668045</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>0.9780735632183903</v>
       </c>
       <c r="B176" t="n">
-        <v>0.7323565483093262</v>
+        <v>0.5587030649185181</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>0.9821005747126432</v>
       </c>
       <c r="B177" t="n">
-        <v>0.7398375868797302</v>
+        <v>0.5463282465934753</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>0.9867942528735628</v>
       </c>
       <c r="B178" t="n">
-        <v>0.7298415303230286</v>
+        <v>0.7310089468955994</v>
       </c>
     </row>
   </sheetData>

--- a/result/chenting_20151124_noon_2.mat0.xlsx
+++ b/result/chenting_20151124_noon_2.mat0.xlsx
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.101840416590373</v>
+        <v>22.12322044372559</v>
       </c>
       <c r="C2" t="n">
-        <v>13660.86263020833</v>
+        <v>3249.803466796875</v>
       </c>
       <c r="D2" t="n">
-        <v>3.876099775234858</v>
+        <v>23.88280598322551</v>
       </c>
       <c r="E2" t="n">
-        <v>13659.63671875</v>
+        <v>3251.563008626302</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.03861745198568</v>
+        <v>21.49279912312825</v>
       </c>
       <c r="C3" t="n">
-        <v>13412.19889322917</v>
+        <v>3191.797200520833</v>
       </c>
       <c r="D3" t="n">
-        <v>23.76672077178955</v>
+        <v>21.17118628819783</v>
       </c>
       <c r="E3" t="n">
-        <v>13411.92692057292</v>
+        <v>3191.4755859375</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.61346371968587</v>
+        <v>3.44198203086853</v>
       </c>
       <c r="C4" t="n">
-        <v>13140.2431640625</v>
+        <v>3117.180745442708</v>
       </c>
       <c r="D4" t="n">
-        <v>13.27632029851278</v>
+        <v>3.012191077073415</v>
       </c>
       <c r="E4" t="n">
-        <v>13139.90633138021</v>
+        <v>3116.7509765625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.000542322794597</v>
+        <v>5.473627885182698</v>
       </c>
       <c r="C5" t="n">
-        <v>12876.68098958333</v>
+        <v>3063.453857421875</v>
       </c>
       <c r="D5" t="n">
-        <v>6.660383423169454</v>
+        <v>6.06314480304718</v>
       </c>
       <c r="E5" t="n">
-        <v>12877.34098307292</v>
+        <v>3064.043375651042</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3.66269318262736</v>
+        <v>0.9912945826848348</v>
       </c>
       <c r="C6" t="n">
-        <v>12623.46061197917</v>
+        <v>3004.192057291667</v>
       </c>
       <c r="D6" t="n">
-        <v>2.989461998144785</v>
+        <v>0.8316081414620081</v>
       </c>
       <c r="E6" t="n">
-        <v>12622.78727213542</v>
+        <v>3004.032267252604</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.445006688435872</v>
+        <v>4.767855326334636</v>
       </c>
       <c r="C7" t="n">
-        <v>12380.41634114583</v>
+        <v>2954.26171875</v>
       </c>
       <c r="D7" t="n">
-        <v>5.817401687304179</v>
+        <v>4.62103267510732</v>
       </c>
       <c r="E7" t="n">
-        <v>12379.78922526042</v>
+        <v>2954.114929199219</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.170237938563029</v>
+        <v>4.18226973215739</v>
       </c>
       <c r="C8" t="n">
-        <v>12133.98079427083</v>
+        <v>2900.923990885417</v>
       </c>
       <c r="D8" t="n">
-        <v>1.415287713209788</v>
+        <v>3.977555294831594</v>
       </c>
       <c r="E8" t="n">
-        <v>12134.22591145833</v>
+        <v>2900.719258626302</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5419642229874929</v>
+        <v>3.342562834421793</v>
       </c>
       <c r="C9" t="n">
-        <v>11896.7646484375</v>
+        <v>2848.27099609375</v>
       </c>
       <c r="D9" t="n">
-        <v>1.252407332261403</v>
+        <v>3.950048983097076</v>
       </c>
       <c r="E9" t="n">
-        <v>11897.47501627604</v>
+        <v>2848.878458658854</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.056907514731089</v>
+        <v>0.8324134548505148</v>
       </c>
       <c r="C10" t="n">
-        <v>11665.21419270833</v>
+        <v>2794.915120442708</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7932560245196024</v>
+        <v>1.427131210764249</v>
       </c>
       <c r="E10" t="n">
-        <v>11664.95035807292</v>
+        <v>2795.50986735026</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -568,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.603026032447815</v>
+        <v>3.019781033198039</v>
       </c>
       <c r="C11" t="n">
-        <v>11438.22233072917</v>
+        <v>2747.178466796875</v>
       </c>
       <c r="D11" t="n">
-        <v>1.724078784386317</v>
+        <v>2.580742160479228</v>
       </c>
       <c r="E11" t="n">
-        <v>11438.34318033854</v>
+        <v>2746.739440917969</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5923917492230734</v>
+        <v>1.554519176483154</v>
       </c>
       <c r="C12" t="n">
-        <v>11214.107421875</v>
+        <v>2696.722005208333</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6809390286604563</v>
+        <v>1.264386594295502</v>
       </c>
       <c r="E12" t="n">
-        <v>11214.19563802083</v>
+        <v>2696.431884765625</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -602,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>4.154921531677246</v>
+        <v>0.3826863467693329</v>
       </c>
       <c r="C13" t="n">
-        <v>10998.78190104167</v>
+        <v>2647.454996744792</v>
       </c>
       <c r="D13" t="n">
-        <v>4.014195243517558</v>
+        <v>0.8668519655863444</v>
       </c>
       <c r="E13" t="n">
-        <v>10998.64119466146</v>
+        <v>2647.939107259115</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -619,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2.664637168248495</v>
+        <v>0.7907369136810303</v>
       </c>
       <c r="C14" t="n">
-        <v>10782.91927083333</v>
+        <v>2600.649658203125</v>
       </c>
       <c r="D14" t="n">
-        <v>2.806402603785197</v>
+        <v>0.8715898096561432</v>
       </c>
       <c r="E14" t="n">
-        <v>10783.06127929688</v>
+        <v>2600.730489095052</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4014762242635091</v>
+        <v>1.805184721946716</v>
       </c>
       <c r="C15" t="n">
-        <v>10570.5654296875</v>
+        <v>2555.342610677083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3532861943046252</v>
+        <v>1.517036904891332</v>
       </c>
       <c r="E15" t="n">
-        <v>10570.51741536458</v>
+        <v>2555.054361979167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -653,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3486736516157786</v>
+        <v>0.4193599869807561</v>
       </c>
       <c r="C16" t="n">
-        <v>10364.4833984375</v>
+        <v>2508.503824869792</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4841258252660434</v>
+        <v>0.5839492330948511</v>
       </c>
       <c r="E16" t="n">
-        <v>10364.61905924479</v>
+        <v>2508.668416341146</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -670,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.715255618095398</v>
+        <v>1.714028676350911</v>
       </c>
       <c r="C17" t="n">
-        <v>10163.74186197917</v>
+        <v>2465.180826822917</v>
       </c>
       <c r="D17" t="n">
-        <v>1.451238304376602</v>
+        <v>1.78015806277593</v>
       </c>
       <c r="E17" t="n">
-        <v>10163.47762044271</v>
+        <v>2465.246948242188</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2396945705016454</v>
+        <v>2.3832848072052</v>
       </c>
       <c r="C18" t="n">
-        <v>9963.980143229166</v>
+        <v>2422.086100260417</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1819249664743741</v>
+        <v>2.671052555243174</v>
       </c>
       <c r="E18" t="n">
-        <v>9963.922200520834</v>
+        <v>2422.373942057292</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -704,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7161746025085449</v>
+        <v>2.972610712051392</v>
       </c>
       <c r="C19" t="n">
-        <v>9769.911458333334</v>
+        <v>2379.782389322917</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9146945476531982</v>
+        <v>3.033924142519633</v>
       </c>
       <c r="E19" t="n">
-        <v>9770.110107421875</v>
+        <v>2379.843729654948</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2799875934918721</v>
+        <v>0.833758940299352</v>
       </c>
       <c r="C20" t="n">
-        <v>9578.573893229166</v>
+        <v>2335.56396484375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1638996489346027</v>
+        <v>0.7561480700969696</v>
       </c>
       <c r="E20" t="n">
-        <v>9578.457845052084</v>
+        <v>2335.486368815104</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -738,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1970692773660024</v>
+        <v>0.6503851612408956</v>
       </c>
       <c r="C21" t="n">
-        <v>9391.139322916666</v>
+        <v>2294.079833984375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2544109610219796</v>
+        <v>0.6534638901551565</v>
       </c>
       <c r="E21" t="n">
-        <v>9391.196695963541</v>
+        <v>2294.08290608724</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -755,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1391261170307795</v>
+        <v>0.4911614755789439</v>
       </c>
       <c r="C22" t="n">
-        <v>9207.211588541666</v>
+        <v>2253.35400390625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3228283102313678</v>
+        <v>0.4838613693912824</v>
       </c>
       <c r="E22" t="n">
-        <v>9207.39501953125</v>
+        <v>2253.346659342448</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -772,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2345713178316752</v>
+        <v>0.30988643070062</v>
       </c>
       <c r="C23" t="n">
-        <v>9026.861328125</v>
+        <v>2213.331136067708</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1812806551655134</v>
+        <v>0.3298261960347493</v>
       </c>
       <c r="E23" t="n">
-        <v>9026.80810546875</v>
+        <v>2213.351053873698</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -789,16 +789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.130258542795976</v>
+        <v>0.4181481649478276</v>
       </c>
       <c r="C24" t="n">
-        <v>8849.662434895834</v>
+        <v>2174.309244791667</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1644546923538049</v>
+        <v>0.5441330174605051</v>
       </c>
       <c r="E24" t="n">
-        <v>8849.696614583334</v>
+        <v>2174.435241699219</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,16 +806,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1269448921084404</v>
+        <v>0.1531987165411313</v>
       </c>
       <c r="C25" t="n">
-        <v>8675.87109375</v>
+        <v>2135.626383463542</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1120933486769597</v>
+        <v>0.1929271928966045</v>
       </c>
       <c r="E25" t="n">
-        <v>8675.856363932291</v>
+        <v>2135.666076660156</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1437858914335569</v>
+        <v>0.8486885031064352</v>
       </c>
       <c r="C26" t="n">
-        <v>8505.331380208334</v>
+        <v>2098.603108723958</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09916775797804196</v>
+        <v>0.7736093004544576</v>
       </c>
       <c r="E26" t="n">
-        <v>8505.286702473959</v>
+        <v>2098.527994791667</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -840,16 +840,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1044780164957047</v>
+        <v>0.3047962139050166</v>
       </c>
       <c r="C27" t="n">
-        <v>8337.9140625</v>
+        <v>2061.027425130208</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1028096880763769</v>
+        <v>0.3132263403385878</v>
       </c>
       <c r="E27" t="n">
-        <v>8337.912516276041</v>
+        <v>2061.035868326823</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -857,16 +857,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1202971438566844</v>
+        <v>0.4239138960838318</v>
       </c>
       <c r="C28" t="n">
-        <v>8173.683919270833</v>
+        <v>2024.777913411458</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1336779613047838</v>
+        <v>0.3615371237198512</v>
       </c>
       <c r="E28" t="n">
-        <v>8173.697102864583</v>
+        <v>2024.715555826823</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -874,16 +874,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1775220632553101</v>
+        <v>0.5954498449961344</v>
       </c>
       <c r="C29" t="n">
-        <v>8012.568522135417</v>
+        <v>1989.225016276042</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1020938809961081</v>
+        <v>0.6932872186104456</v>
       </c>
       <c r="E29" t="n">
-        <v>8012.493204752604</v>
+        <v>1989.32280476888</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -891,16 +891,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1658867051204046</v>
+        <v>0.1411841958761215</v>
       </c>
       <c r="C30" t="n">
-        <v>7854.3994140625</v>
+        <v>1953.680582682292</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1114399308959643</v>
+        <v>0.1678272088368734</v>
       </c>
       <c r="E30" t="n">
-        <v>7854.344889322917</v>
+        <v>1953.707244873047</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -908,16 +908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07862676059206326</v>
+        <v>0.2368129193782806</v>
       </c>
       <c r="C31" t="n">
-        <v>7699.1181640625</v>
+        <v>1919.304809570312</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1205204433451096</v>
+        <v>0.3229492728908857</v>
       </c>
       <c r="E31" t="n">
-        <v>7699.160074869792</v>
+        <v>1919.390940348307</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -925,16 +925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.116183876991272</v>
+        <v>0.1766860286394755</v>
       </c>
       <c r="C32" t="n">
-        <v>7546.8720703125</v>
+        <v>1885.385538736979</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1167330018555125</v>
+        <v>0.2184484675526619</v>
       </c>
       <c r="E32" t="n">
-        <v>7546.872517903646</v>
+        <v>1885.427317301432</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -942,16 +942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1254898098607858</v>
+        <v>0.1481223454078039</v>
       </c>
       <c r="C33" t="n">
-        <v>7397.45947265625</v>
+        <v>1852.098063151042</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09433374088257551</v>
+        <v>0.2059877912203471</v>
       </c>
       <c r="E33" t="n">
-        <v>7397.428304036458</v>
+        <v>1852.155934651693</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -959,16 +959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1077515830596288</v>
+        <v>0.251312534014384</v>
       </c>
       <c r="C34" t="n">
-        <v>7250.829427083333</v>
+        <v>1819.532063802083</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1178333864857753</v>
+        <v>0.1762227465709051</v>
       </c>
       <c r="E34" t="n">
-        <v>7250.839518229167</v>
+        <v>1819.45698038737</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,16 +976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1582190667589506</v>
+        <v>0.1181868885954221</v>
       </c>
       <c r="C35" t="n">
-        <v>7107.027018229167</v>
+        <v>1787.307535807292</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1411701279381911</v>
+        <v>0.1254697473098834</v>
       </c>
       <c r="E35" t="n">
-        <v>7107.009806315104</v>
+        <v>1787.314798990885</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1514741703867912</v>
+        <v>0.2081583241621653</v>
       </c>
       <c r="C36" t="n">
-        <v>6965.870279947917</v>
+        <v>1755.869425455729</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1043814135094484</v>
+        <v>0.1316696858654419</v>
       </c>
       <c r="E36" t="n">
-        <v>6965.823160807292</v>
+        <v>1755.79291788737</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1010,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.109502966205279</v>
+        <v>0.1102106173833211</v>
       </c>
       <c r="C37" t="n">
-        <v>6827.335123697917</v>
+        <v>1724.798787434896</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08598263002932072</v>
+        <v>0.1471115046491226</v>
       </c>
       <c r="E37" t="n">
-        <v>6827.311564127604</v>
+        <v>1724.835703531901</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1027,16 +1027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1521190454562505</v>
+        <v>0.1019696022073428</v>
       </c>
       <c r="C38" t="n">
-        <v>6691.493977864583</v>
+        <v>1694.366373697917</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2181021062036355</v>
+        <v>0.1423630627493064</v>
       </c>
       <c r="E38" t="n">
-        <v>6691.559936523438</v>
+        <v>1694.406778971354</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1350313040117423</v>
+        <v>0.1932762165864309</v>
       </c>
       <c r="C39" t="n">
-        <v>6558.169108072917</v>
+        <v>1664.570719401042</v>
       </c>
       <c r="D39" t="n">
-        <v>0.09779914127041896</v>
+        <v>0.129827502494057</v>
       </c>
       <c r="E39" t="n">
-        <v>6558.131998697917</v>
+        <v>1664.50727335612</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1061,16 +1061,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.240668460726738</v>
+        <v>0.1471499105294546</v>
       </c>
       <c r="C40" t="n">
-        <v>6427.48583984375</v>
+        <v>1635.159749348958</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1677793295433124</v>
+        <v>0.1214526301870743</v>
       </c>
       <c r="E40" t="n">
-        <v>6427.412923177083</v>
+        <v>1635.134033203125</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1078,16 +1078,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1179220291475455</v>
+        <v>0.1050447771946589</v>
       </c>
       <c r="C41" t="n">
-        <v>6299.048177083333</v>
+        <v>1606.268147786458</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0808166606972615</v>
+        <v>0.1081843376159668</v>
       </c>
       <c r="E41" t="n">
-        <v>6299.010986328125</v>
+        <v>1606.271280924479</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1095,16 +1095,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1301116272807121</v>
+        <v>0.1141690462827682</v>
       </c>
       <c r="C42" t="n">
-        <v>6173.172037760417</v>
+        <v>1577.937540690104</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2637207309405009</v>
+        <v>0.1045086110631625</v>
       </c>
       <c r="E42" t="n">
-        <v>6173.305745442708</v>
+        <v>1577.927876790365</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1112,16 +1112,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1203321889042854</v>
+        <v>0.08199263984958331</v>
       </c>
       <c r="C43" t="n">
-        <v>6049.669596354167</v>
+        <v>1550.063680013021</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09651696433623631</v>
+        <v>0.1202691610281666</v>
       </c>
       <c r="E43" t="n">
-        <v>6049.645833333333</v>
+        <v>1550.101969401042</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1129,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1304514532287916</v>
+        <v>0.1128884752591451</v>
       </c>
       <c r="C44" t="n">
-        <v>5928.534342447917</v>
+        <v>1522.7431640625</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1292575796445211</v>
+        <v>0.1663254039982955</v>
       </c>
       <c r="E44" t="n">
-        <v>5928.533040364583</v>
+        <v>1522.796569824219</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1146,16 +1146,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1334477116664251</v>
+        <v>0.1403198887904485</v>
       </c>
       <c r="C45" t="n">
-        <v>5809.682291666667</v>
+        <v>1495.899983723958</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09767071716487408</v>
+        <v>0.0929615069180727</v>
       </c>
       <c r="E45" t="n">
-        <v>5809.646443684896</v>
+        <v>1495.852600097656</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1163,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08357380951444308</v>
+        <v>0.163032278418541</v>
       </c>
       <c r="C46" t="n">
-        <v>5693.0234375</v>
+        <v>1469.527994791667</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08223780368765195</v>
+        <v>0.1521415474514166</v>
       </c>
       <c r="E46" t="n">
-        <v>5693.022216796875</v>
+        <v>1469.517130533854</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1180,16 +1180,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08931960165500641</v>
+        <v>0.1626425435145696</v>
       </c>
       <c r="C47" t="n">
-        <v>5578.633626302083</v>
+        <v>1443.597574869792</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1181226292004188</v>
+        <v>0.1021504830569029</v>
       </c>
       <c r="E47" t="n">
-        <v>5578.662556966146</v>
+        <v>1443.537089029948</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09325554594397545</v>
+        <v>0.1021875639756521</v>
       </c>
       <c r="C48" t="n">
-        <v>5466.4189453125</v>
+        <v>1418.063720703125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1437836773693562</v>
+        <v>0.1122106779366732</v>
       </c>
       <c r="E48" t="n">
-        <v>5466.469482421875</v>
+        <v>1418.073760986328</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1107966229319572</v>
+        <v>0.08767044047514598</v>
       </c>
       <c r="C49" t="n">
-        <v>5356.36474609375</v>
+        <v>1393.025431315104</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1007758031288783</v>
+        <v>0.1124979071319103</v>
       </c>
       <c r="E49" t="n">
-        <v>5356.354695638021</v>
+        <v>1393.05024210612</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1895844539006551</v>
+        <v>0.1377881069978078</v>
       </c>
       <c r="C50" t="n">
-        <v>5248.470377604167</v>
+        <v>1368.492268880208</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1580090895295143</v>
+        <v>0.1111092120409012</v>
       </c>
       <c r="E50" t="n">
-        <v>5248.438802083333</v>
+        <v>1368.465606689453</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09619722639520963</v>
+        <v>0.174341527124246</v>
       </c>
       <c r="C51" t="n">
-        <v>5142.453776041667</v>
+        <v>1344.380045572917</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09539860331763823</v>
+        <v>0.1021996326744556</v>
       </c>
       <c r="E51" t="n">
-        <v>5142.452758789062</v>
+        <v>1344.307871500651</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1265,16 +1265,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1522983734806379</v>
+        <v>0.1132806117335955</v>
       </c>
       <c r="C52" t="n">
-        <v>5038.606282552083</v>
+        <v>1320.595703125</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09077239222824574</v>
+        <v>0.08518124247590701</v>
       </c>
       <c r="E52" t="n">
-        <v>5038.544840494792</v>
+        <v>1320.567596435547</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09880022456248601</v>
+        <v>0.1084019616246223</v>
       </c>
       <c r="C53" t="n">
-        <v>4936.639322916667</v>
+        <v>1297.286376953125</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1003487873822451</v>
+        <v>0.08188936052223046</v>
       </c>
       <c r="E53" t="n">
-        <v>4936.640787760417</v>
+        <v>1297.259857177734</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2173406680425008</v>
+        <v>0.09819243599971135</v>
       </c>
       <c r="C54" t="n">
-        <v>4836.787760416667</v>
+        <v>1274.383707682292</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1382381270329157</v>
+        <v>0.07760559984793265</v>
       </c>
       <c r="E54" t="n">
-        <v>4836.708536783854</v>
+        <v>1274.363128662109</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1867212330301603</v>
+        <v>0.1337393422921499</v>
       </c>
       <c r="C55" t="n">
-        <v>4738.701822916667</v>
+        <v>1251.929850260417</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1149059872453411</v>
+        <v>0.08839124130705993</v>
       </c>
       <c r="E55" t="n">
-        <v>4738.630086263021</v>
+        <v>1251.884531656901</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1784157405296961</v>
+        <v>0.1466524600982666</v>
       </c>
       <c r="C56" t="n">
-        <v>4642.513834635417</v>
+        <v>1229.849527994792</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1053349648912748</v>
+        <v>0.09035406882564227</v>
       </c>
       <c r="E56" t="n">
-        <v>4642.440755208333</v>
+        <v>1229.793243408203</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.09510624036192894</v>
+        <v>0.1277998238801956</v>
       </c>
       <c r="C57" t="n">
-        <v>4548.103352864583</v>
+        <v>1208.129150390625</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0838294258962075</v>
+        <v>0.0855383463203907</v>
       </c>
       <c r="E57" t="n">
-        <v>4548.092122395833</v>
+        <v>1208.086873372396</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1664744863907496</v>
+        <v>0.1506523117423058</v>
       </c>
       <c r="C58" t="n">
-        <v>4455.65576171875</v>
+        <v>1186.833658854167</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1217923828711112</v>
+        <v>0.08591970133905609</v>
       </c>
       <c r="E58" t="n">
-        <v>4455.611083984375</v>
+        <v>1186.768910725911</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1384,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1876106162865957</v>
+        <v>0.1166400586565336</v>
       </c>
       <c r="C59" t="n">
-        <v>4364.92724609375</v>
+        <v>1165.858235677083</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1390226564059655</v>
+        <v>0.07615816468993823</v>
       </c>
       <c r="E59" t="n">
-        <v>4364.878743489583</v>
+        <v>1165.817738850911</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1401,16 +1401,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1259402682383855</v>
+        <v>0.1131250932812691</v>
       </c>
       <c r="C60" t="n">
-        <v>4275.857747395833</v>
+        <v>1145.284912109375</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08687663357704878</v>
+        <v>0.07487143607189257</v>
       </c>
       <c r="E60" t="n">
-        <v>4275.818806966146</v>
+        <v>1145.246622721354</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.115675363689661</v>
+        <v>0.09606617068250974</v>
       </c>
       <c r="C61" t="n">
-        <v>4188.550130208333</v>
+        <v>1125.062093098958</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08296248565117519</v>
+        <v>0.08080017007887363</v>
       </c>
       <c r="E61" t="n">
-        <v>4188.517618815104</v>
+        <v>1125.046864827474</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1617676143844922</v>
+        <v>0.1102436756094297</v>
       </c>
       <c r="C62" t="n">
-        <v>4102.9775390625</v>
+        <v>1105.227661132812</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1109632514417171</v>
+        <v>0.08380596168960135</v>
       </c>
       <c r="E62" t="n">
-        <v>4102.926839192708</v>
+        <v>1105.201253255208</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1997089684009552</v>
+        <v>0.1235077281792959</v>
       </c>
       <c r="C63" t="n">
-        <v>4019.044759114583</v>
+        <v>1085.744506835938</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1585933404664198</v>
+        <v>0.07538631123801072</v>
       </c>
       <c r="E63" t="n">
-        <v>4019.003601074219</v>
+        <v>1085.696350097656</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08031261463960011</v>
+        <v>0.128369577229023</v>
       </c>
       <c r="C64" t="n">
-        <v>3936.572998046875</v>
+        <v>1066.599446614583</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1592122577130795</v>
+        <v>0.09213580004870892</v>
       </c>
       <c r="E64" t="n">
-        <v>3936.65185546875</v>
+        <v>1066.563212076823</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2106710970401764</v>
+        <v>0.1087548658251762</v>
       </c>
       <c r="C65" t="n">
-        <v>3855.947428385417</v>
+        <v>1047.771728515625</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1550225255390008</v>
+        <v>0.07949787098914385</v>
       </c>
       <c r="E65" t="n">
-        <v>3855.891866048177</v>
+        <v>1047.742472330729</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1214141820867856</v>
+        <v>0.1458307753006617</v>
       </c>
       <c r="C66" t="n">
-        <v>3776.6630859375</v>
+        <v>1029.335123697917</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08525526275237401</v>
+        <v>0.09582048219939072</v>
       </c>
       <c r="E66" t="n">
-        <v>3776.627014160156</v>
+        <v>1029.28515625</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09861995279788971</v>
+        <v>0.09968616565068562</v>
       </c>
       <c r="C67" t="n">
-        <v>3698.981119791667</v>
+        <v>1011.143330891927</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1034666063884894</v>
+        <v>0.08918691178162892</v>
       </c>
       <c r="E67" t="n">
-        <v>3698.986002604167</v>
+        <v>1011.132822672526</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08717453603943189</v>
+        <v>0.1365946109096209</v>
       </c>
       <c r="C68" t="n">
-        <v>3622.815185546875</v>
+        <v>993.3587646484375</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1399394348263741</v>
+        <v>0.08108058075110118</v>
       </c>
       <c r="E68" t="n">
-        <v>3622.867980957031</v>
+        <v>993.3032531738281</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1093752135833104</v>
+        <v>0.1978573153416316</v>
       </c>
       <c r="C69" t="n">
-        <v>3548.15771484375</v>
+        <v>975.9145914713541</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08147659866760175</v>
+        <v>0.1416717221339544</v>
       </c>
       <c r="E69" t="n">
-        <v>3548.129821777344</v>
+        <v>975.8584136962891</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2438732733329137</v>
+        <v>0.1423661957184474</v>
       </c>
       <c r="C70" t="n">
-        <v>3475.06494140625</v>
+        <v>958.6677449544271</v>
       </c>
       <c r="D70" t="n">
-        <v>0.214208277563254</v>
+        <v>0.09907655728360017</v>
       </c>
       <c r="E70" t="n">
-        <v>3475.03525797526</v>
+        <v>958.6244608561198</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1350735972325007</v>
+        <v>0.09382920215527217</v>
       </c>
       <c r="C71" t="n">
-        <v>3403.166259765625</v>
+        <v>941.7334594726562</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1575752918918928</v>
+        <v>0.08787772990763187</v>
       </c>
       <c r="E71" t="n">
-        <v>3403.18886311849</v>
+        <v>941.7275187174479</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1959923505783081</v>
+        <v>0.1093067899346352</v>
       </c>
       <c r="C72" t="n">
-        <v>3332.833902994792</v>
+        <v>925.1657104492188</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1350888504336278</v>
+        <v>0.0788085733850797</v>
       </c>
       <c r="E72" t="n">
-        <v>3332.773030598958</v>
+        <v>925.1351979573568</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1231852148969968</v>
+        <v>0.1204388489325841</v>
       </c>
       <c r="C73" t="n">
-        <v>3263.736490885417</v>
+        <v>908.8889770507812</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09692567462722461</v>
+        <v>0.08038636545340221</v>
       </c>
       <c r="E73" t="n">
-        <v>3263.710184733073</v>
+        <v>908.8489379882812</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1639,16 +1639,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.104485164086024</v>
+        <v>0.1040619388222694</v>
       </c>
       <c r="C74" t="n">
-        <v>3196.037353515625</v>
+        <v>892.875732421875</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1689110919833183</v>
+        <v>0.0767265281950434</v>
       </c>
       <c r="E74" t="n">
-        <v>3196.101725260417</v>
+        <v>892.848388671875</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1656,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1729241634408633</v>
+        <v>0.1355007663369179</v>
       </c>
       <c r="C75" t="n">
-        <v>3129.750325520833</v>
+        <v>877.1963704427084</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1209266235431035</v>
+        <v>0.07821043177197377</v>
       </c>
       <c r="E75" t="n">
-        <v>3129.698323567708</v>
+        <v>877.1390686035156</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1673,16 +1673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08748272061347961</v>
+        <v>0.1088955601056417</v>
       </c>
       <c r="C76" t="n">
-        <v>3064.608479817708</v>
+        <v>861.7399495442709</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1215337670097748</v>
+        <v>0.07838645701607068</v>
       </c>
       <c r="E76" t="n">
-        <v>3064.642537434896</v>
+        <v>861.7094268798828</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1690,16 +1690,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.128673014541467</v>
+        <v>0.1083879694342613</v>
       </c>
       <c r="C77" t="n">
-        <v>3000.870930989583</v>
+        <v>846.5864664713541</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1076879010846217</v>
+        <v>0.07849850909163554</v>
       </c>
       <c r="E77" t="n">
-        <v>3000.849853515625</v>
+        <v>846.5565795898438</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1707,16 +1707,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.15182064473629</v>
+        <v>0.1061817308266958</v>
       </c>
       <c r="C78" t="n">
-        <v>2938.37158203125</v>
+        <v>831.7023111979166</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1600396335124969</v>
+        <v>0.07912660141785939</v>
       </c>
       <c r="E78" t="n">
-        <v>2938.379760742188</v>
+        <v>831.6752522786459</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1724,16 +1724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1494478359818459</v>
+        <v>0.1266790106892586</v>
       </c>
       <c r="C79" t="n">
-        <v>2877.081136067708</v>
+        <v>817.1089680989584</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1014727291961511</v>
+        <v>0.08484955380360286</v>
       </c>
       <c r="E79" t="n">
-        <v>2877.033121744792</v>
+        <v>817.0671437581381</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1741,16 +1741,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1415547579526901</v>
+        <v>0.09906904151042302</v>
       </c>
       <c r="C80" t="n">
-        <v>2816.987711588542</v>
+        <v>802.7297566731771</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09467859488601486</v>
+        <v>0.07867192508031924</v>
       </c>
       <c r="E80" t="n">
-        <v>2816.940877278646</v>
+        <v>802.7093505859375</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1471456550061703</v>
+        <v>0.1003528373936812</v>
       </c>
       <c r="C81" t="n">
-        <v>2758.092203776042</v>
+        <v>788.6383056640625</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1042521248261134</v>
+        <v>0.08426152107616265</v>
       </c>
       <c r="E81" t="n">
-        <v>2758.049296061198</v>
+        <v>788.6222279866537</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1695440212885539</v>
+        <v>0.1170966774225235</v>
       </c>
       <c r="C82" t="n">
-        <v>2700.372884114583</v>
+        <v>774.8159993489584</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1158153861761093</v>
+        <v>0.07944122950236003</v>
       </c>
       <c r="E82" t="n">
-        <v>2700.319193522135</v>
+        <v>774.7783508300781</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08687794456879298</v>
+        <v>0.1608378017942111</v>
       </c>
       <c r="C83" t="n">
-        <v>2643.688720703125</v>
+        <v>761.2686360677084</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09354208782315254</v>
+        <v>0.09394983823100726</v>
       </c>
       <c r="E83" t="n">
-        <v>2643.695332845052</v>
+        <v>761.2017415364584</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.09256527572870255</v>
+        <v>0.1024762615561485</v>
       </c>
       <c r="C84" t="n">
-        <v>2588.211995442708</v>
+        <v>747.8632405598959</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1092660495390495</v>
+        <v>0.07978509490688641</v>
       </c>
       <c r="E84" t="n">
-        <v>2588.228678385417</v>
+        <v>747.8405202229818</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1826,16 +1826,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1421381185452143</v>
+        <v>0.1845732803146044</v>
       </c>
       <c r="C85" t="n">
-        <v>2533.877034505208</v>
+        <v>734.8391316731771</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08661618394156297</v>
+        <v>0.1342874243855476</v>
       </c>
       <c r="E85" t="n">
-        <v>2533.821492513021</v>
+        <v>734.788828531901</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1454874103267988</v>
+        <v>0.09804371744394302</v>
       </c>
       <c r="C86" t="n">
-        <v>2480.579345703125</v>
+        <v>721.8838094075521</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09767771077652772</v>
+        <v>0.07786228135228157</v>
       </c>
       <c r="E86" t="n">
-        <v>2480.531494140625</v>
+        <v>721.8636220296224</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1860,16 +1860,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1444629629453023</v>
+        <v>0.09276412054896355</v>
       </c>
       <c r="C87" t="n">
-        <v>2428.338623046875</v>
+        <v>709.2440185546875</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1071292689690987</v>
+        <v>0.1197116952389479</v>
       </c>
       <c r="E87" t="n">
-        <v>2428.301249186198</v>
+        <v>709.2709503173828</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1877,16 +1877,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1956711734334628</v>
+        <v>0.1066154564420382</v>
       </c>
       <c r="C88" t="n">
-        <v>2377.192057291667</v>
+        <v>696.8516642252604</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1351949243495862</v>
+        <v>0.07481680065393448</v>
       </c>
       <c r="E88" t="n">
-        <v>2377.131530761719</v>
+        <v>696.8198750813802</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1894,16 +1894,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1435644676287969</v>
+        <v>0.1349721923470497</v>
       </c>
       <c r="C89" t="n">
-        <v>2326.966552734375</v>
+        <v>684.6965535481771</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09690233133733273</v>
+        <v>0.09200287299851577</v>
       </c>
       <c r="E89" t="n">
-        <v>2326.919881184896</v>
+        <v>684.6535898844401</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1911,16 +1911,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1763651718695959</v>
+        <v>0.09186781942844391</v>
       </c>
       <c r="C90" t="n">
-        <v>2277.829671223958</v>
+        <v>672.6893310546875</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1062947269529104</v>
+        <v>0.09390079664687316</v>
       </c>
       <c r="E90" t="n">
-        <v>2277.759623209635</v>
+        <v>672.6913808186849</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1928,16 +1928,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09759824971357982</v>
+        <v>0.1494587237636248</v>
       </c>
       <c r="C91" t="n">
-        <v>2229.566650390625</v>
+        <v>660.9999796549479</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1229438787947098</v>
+        <v>0.1228922003259261</v>
       </c>
       <c r="E91" t="n">
-        <v>2229.591918945312</v>
+        <v>660.9734141031901</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1945,16 +1945,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1820906723539034</v>
+        <v>0.134658786157767</v>
       </c>
       <c r="C92" t="n">
-        <v>2182.433837890625</v>
+        <v>649.4530843098959</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1249806024134159</v>
+        <v>0.08604354504495859</v>
       </c>
       <c r="E92" t="n">
-        <v>2182.376708984375</v>
+        <v>649.4044647216797</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1962,16 +1962,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1167210601270199</v>
+        <v>0.08902123073736827</v>
       </c>
       <c r="C93" t="n">
-        <v>2136.096516927083</v>
+        <v>638.0830281575521</v>
       </c>
       <c r="D93" t="n">
-        <v>0.09614261736472447</v>
+        <v>0.08920333596567313</v>
       </c>
       <c r="E93" t="n">
-        <v>2136.075887044271</v>
+        <v>638.0832214355469</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1979,16 +1979,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1607866138219833</v>
+        <v>0.1295119399825732</v>
       </c>
       <c r="C94" t="n">
-        <v>2090.796549479167</v>
+        <v>627.0042114257812</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1049668304622173</v>
+        <v>0.08099901955574751</v>
       </c>
       <c r="E94" t="n">
-        <v>2090.740702311198</v>
+        <v>626.9557037353516</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1996,16 +1996,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1053105170528094</v>
+        <v>0.1113578875859578</v>
       </c>
       <c r="C95" t="n">
-        <v>2046.312784830729</v>
+        <v>616.0688273111979</v>
       </c>
       <c r="D95" t="n">
-        <v>0.08735427384575208</v>
+        <v>0.07247810872892539</v>
       </c>
       <c r="E95" t="n">
-        <v>2046.294901529948</v>
+        <v>616.0299377441406</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1266236479083697</v>
+        <v>0.1376739616195361</v>
       </c>
       <c r="C96" t="n">
-        <v>2002.800821940104</v>
+        <v>605.3752848307291</v>
       </c>
       <c r="D96" t="n">
-        <v>0.08692495912934343</v>
+        <v>0.08385648857802153</v>
       </c>
       <c r="E96" t="n">
-        <v>2002.76112874349</v>
+        <v>605.3214721679688</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.127920925617218</v>
+        <v>0.1275494818886121</v>
       </c>
       <c r="C97" t="n">
-        <v>1960.145222981771</v>
+        <v>594.8389892578125</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08769641195734341</v>
+        <v>0.07787795768429835</v>
       </c>
       <c r="E97" t="n">
-        <v>1960.10503133138</v>
+        <v>594.789306640625</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2047,16 +2047,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1047632520397504</v>
+        <v>0.1090273906787236</v>
       </c>
       <c r="C98" t="n">
-        <v>1918.329386393229</v>
+        <v>584.4872029622396</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1725922040641308</v>
+        <v>0.0748360538855195</v>
       </c>
       <c r="E98" t="n">
-        <v>1918.397196451823</v>
+        <v>584.4530131022135</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2064,16 +2064,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1189091677467028</v>
+        <v>0.1092752243081729</v>
       </c>
       <c r="C99" t="n">
-        <v>1877.400065104167</v>
+        <v>574.3426920572916</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1401987603555123</v>
+        <v>0.08560599572956562</v>
       </c>
       <c r="E99" t="n">
-        <v>1877.421325683594</v>
+        <v>574.3190104166666</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2081,16 +2081,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1209647183616956</v>
+        <v>0.1564698095122973</v>
       </c>
       <c r="C100" t="n">
-        <v>1837.290649414062</v>
+        <v>564.4289347330729</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09519283535579841</v>
+        <v>0.09757138602435589</v>
       </c>
       <c r="E100" t="n">
-        <v>1837.264851888021</v>
+        <v>564.3700307210287</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2098,16 +2098,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.115740326543649</v>
+        <v>0.09289662291606267</v>
       </c>
       <c r="C101" t="n">
-        <v>1797.989379882812</v>
+        <v>554.5873413085938</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1398561770717303</v>
+        <v>0.09512872900813818</v>
       </c>
       <c r="E101" t="n">
-        <v>1798.013519287109</v>
+        <v>554.5895690917969</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2115,16 +2115,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.109589306016763</v>
+        <v>0.192921407520771</v>
       </c>
       <c r="C102" t="n">
-        <v>1759.486897786458</v>
+        <v>545.0885620117188</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1034374485413233</v>
+        <v>0.1309732366353273</v>
       </c>
       <c r="E102" t="n">
-        <v>1759.480743408203</v>
+        <v>545.0266062418619</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2132,16 +2132,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2252537285288175</v>
+        <v>0.1411676456530889</v>
       </c>
       <c r="C103" t="n">
-        <v>1721.889078776042</v>
+        <v>535.6133829752604</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1531754874934753</v>
+        <v>0.0864654245475928</v>
       </c>
       <c r="E103" t="n">
-        <v>1721.816965738932</v>
+        <v>535.5586903889974</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2149,16 +2149,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2012343357006709</v>
+        <v>0.1228562220931053</v>
       </c>
       <c r="C104" t="n">
-        <v>1684.927530924479</v>
+        <v>526.3438110351562</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1470907336721818</v>
+        <v>0.0850672194113334</v>
       </c>
       <c r="E104" t="n">
-        <v>1684.873413085938</v>
+        <v>526.3060201009115</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2166,16 +2166,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1104478401442369</v>
+        <v>0.1008962839841843</v>
       </c>
       <c r="C105" t="n">
-        <v>1648.659871419271</v>
+        <v>517.2395629882812</v>
       </c>
       <c r="D105" t="n">
-        <v>0.09461495652794838</v>
+        <v>0.0910104475915432</v>
       </c>
       <c r="E105" t="n">
-        <v>1648.644063313802</v>
+        <v>517.2296752929688</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2183,16 +2183,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1265908839801947</v>
+        <v>0.1258511741956075</v>
       </c>
       <c r="C106" t="n">
-        <v>1613.239624023438</v>
+        <v>508.3480834960938</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1091557157536348</v>
+        <v>0.08516079870363076</v>
       </c>
       <c r="E106" t="n">
-        <v>1613.222178141276</v>
+        <v>508.3073908487956</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2200,16 +2200,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1414616952339808</v>
+        <v>0.1242729822794596</v>
       </c>
       <c r="C107" t="n">
-        <v>1578.546752929688</v>
+        <v>499.5937805175781</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1046843708803256</v>
+        <v>0.09181264601647854</v>
       </c>
       <c r="E107" t="n">
-        <v>1578.509969075521</v>
+        <v>499.5613250732422</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,16 +2217,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1387270838022232</v>
+        <v>0.1221585993965467</v>
       </c>
       <c r="C108" t="n">
-        <v>1544.550089518229</v>
+        <v>490.9987386067708</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1041128939638535</v>
+        <v>0.08086665440350771</v>
       </c>
       <c r="E108" t="n">
-        <v>1544.515502929688</v>
+        <v>490.9574534098307</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2234,16 +2234,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1167853362858295</v>
+        <v>0.1009221822023392</v>
       </c>
       <c r="C109" t="n">
-        <v>1511.234944661458</v>
+        <v>482.5426635742188</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1013078391551971</v>
+        <v>0.07556481830154856</v>
       </c>
       <c r="E109" t="n">
-        <v>1511.219462076823</v>
+        <v>482.5173085530599</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2251,16 +2251,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1162444055080414</v>
+        <v>0.1753221328059832</v>
       </c>
       <c r="C110" t="n">
-        <v>1478.626627604167</v>
+        <v>474.3385823567708</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1287621309359868</v>
+        <v>0.109777571943899</v>
       </c>
       <c r="E110" t="n">
-        <v>1478.639129638672</v>
+        <v>474.2730509440104</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2268,16 +2268,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09608730673789978</v>
+        <v>0.143759585916996</v>
       </c>
       <c r="C111" t="n">
-        <v>1446.673990885417</v>
+        <v>466.1818135579427</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1382300419112047</v>
+        <v>0.1009481772780418</v>
       </c>
       <c r="E111" t="n">
-        <v>1446.716105143229</v>
+        <v>466.1390050252278</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2285,16 +2285,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1354618693391482</v>
+        <v>0.122162364423275</v>
       </c>
       <c r="C112" t="n">
-        <v>1415.446126302083</v>
+        <v>458.1830139160156</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0929164628808697</v>
+        <v>0.07769349124282598</v>
       </c>
       <c r="E112" t="n">
-        <v>1415.403584798177</v>
+        <v>458.1385447184245</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2302,16 +2302,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1923610977828503</v>
+        <v>0.1157480850815773</v>
       </c>
       <c r="C113" t="n">
-        <v>1384.8828125</v>
+        <v>450.345703125</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1371007338166237</v>
+        <v>0.07844898663461208</v>
       </c>
       <c r="E113" t="n">
-        <v>1384.82753499349</v>
+        <v>450.3084004720052</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1272226522366206</v>
+        <v>0.1257914106051127</v>
       </c>
       <c r="C114" t="n">
-        <v>1354.834269205729</v>
+        <v>442.6695556640625</v>
       </c>
       <c r="D114" t="n">
-        <v>0.08914019353687763</v>
+        <v>0.08315053768455982</v>
       </c>
       <c r="E114" t="n">
-        <v>1354.796162923177</v>
+        <v>442.6269149780273</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2336,16 +2336,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1018079270919164</v>
+        <v>0.1652787427107493</v>
       </c>
       <c r="C115" t="n">
-        <v>1325.44970703125</v>
+        <v>435.1648559570312</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1635463399191698</v>
+        <v>0.1057526264339685</v>
       </c>
       <c r="E115" t="n">
-        <v>1325.511454264323</v>
+        <v>435.1053263346354</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2353,16 +2353,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1182637388507525</v>
+        <v>0.09214617311954498</v>
       </c>
       <c r="C116" t="n">
-        <v>1296.723225911458</v>
+        <v>427.6861165364583</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1188257162769635</v>
+        <v>0.08225075590113799</v>
       </c>
       <c r="E116" t="n">
-        <v>1296.723795572917</v>
+        <v>427.6762161254883</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2370,16 +2370,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1167882805069288</v>
+        <v>0.0929124007622401</v>
       </c>
       <c r="C117" t="n">
-        <v>1268.581176757812</v>
+        <v>420.4187113444011</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09724470227956772</v>
+        <v>0.1037493006636699</v>
       </c>
       <c r="E117" t="n">
-        <v>1268.561604817708</v>
+        <v>420.42955271403</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2387,16 +2387,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1405002052585284</v>
+        <v>0.114140252272288</v>
       </c>
       <c r="C118" t="n">
-        <v>1241.054036458333</v>
+        <v>413.3075866699219</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1010985473791758</v>
+        <v>0.08113681338727474</v>
       </c>
       <c r="E118" t="n">
-        <v>1241.014678955078</v>
+        <v>413.2745869954427</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2404,16 +2404,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1266280859708786</v>
+        <v>0.1063589428861936</v>
       </c>
       <c r="C119" t="n">
-        <v>1214.070109049479</v>
+        <v>406.2986145019531</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09714314341545105</v>
+        <v>0.078269154454271</v>
       </c>
       <c r="E119" t="n">
-        <v>1214.040618896484</v>
+        <v>406.2705307006836</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2421,16 +2421,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1370947559674581</v>
+        <v>0.1056687658031781</v>
       </c>
       <c r="C120" t="n">
-        <v>1187.67529296875</v>
+        <v>399.4250284830729</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1122441695382198</v>
+        <v>0.07731336386253436</v>
       </c>
       <c r="E120" t="n">
-        <v>1187.650451660156</v>
+        <v>399.3966776529948</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2438,16 +2438,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1238447080055873</v>
+        <v>0.1227368215719859</v>
       </c>
       <c r="C121" t="n">
-        <v>1161.811319986979</v>
+        <v>392.6959533691406</v>
       </c>
       <c r="D121" t="n">
-        <v>0.09161121398210526</v>
+        <v>0.07868818659335375</v>
       </c>
       <c r="E121" t="n">
-        <v>1161.779103597005</v>
+        <v>392.6518987019857</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2455,16 +2455,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1000753343105316</v>
+        <v>0.1142021790146828</v>
       </c>
       <c r="C122" t="n">
-        <v>1136.483276367188</v>
+        <v>386.0666300455729</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1481659722824892</v>
+        <v>0.08290654855469863</v>
       </c>
       <c r="E122" t="n">
-        <v>1136.53135172526</v>
+        <v>386.0353317260742</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2472,16 +2472,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1272595127423604</v>
+        <v>0.1287588949004809</v>
       </c>
       <c r="C123" t="n">
-        <v>1111.745686848958</v>
+        <v>379.5839945475261</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1020156089216471</v>
+        <v>0.08557570663591225</v>
       </c>
       <c r="E123" t="n">
-        <v>1111.720418294271</v>
+        <v>379.5408096313477</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2489,16 +2489,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2761663869023323</v>
+        <v>0.1396761486927668</v>
       </c>
       <c r="C124" t="n">
-        <v>1087.653727213542</v>
+        <v>373.2174987792969</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2043299612899621</v>
+        <v>0.1081520443161329</v>
       </c>
       <c r="E124" t="n">
-        <v>1087.581888834635</v>
+        <v>373.1859690348307</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2506,16 +2506,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1288168976704279</v>
+        <v>0.1176533997058868</v>
       </c>
       <c r="C125" t="n">
-        <v>1063.785196940104</v>
+        <v>366.9371032714844</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1025037784129381</v>
+        <v>0.08282840810716152</v>
       </c>
       <c r="E125" t="n">
-        <v>1063.758880615234</v>
+        <v>366.9022852579753</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1288679329057535</v>
+        <v>0.1078943138321241</v>
       </c>
       <c r="C126" t="n">
-        <v>1040.567830403646</v>
+        <v>360.7858072916667</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09633412087957065</v>
+        <v>0.08865289110690355</v>
       </c>
       <c r="E126" t="n">
-        <v>1040.535308837891</v>
+        <v>360.7665685017903</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1239249582091967</v>
+        <v>0.1146015897393227</v>
       </c>
       <c r="C127" t="n">
-        <v>1017.838460286458</v>
+        <v>354.7640991210938</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1057449138412873</v>
+        <v>0.08763682718078296</v>
       </c>
       <c r="E127" t="n">
-        <v>1017.820292154948</v>
+        <v>354.7371419270833</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1216409380237262</v>
+        <v>0.1282356729110082</v>
       </c>
       <c r="C128" t="n">
-        <v>995.596923828125</v>
+        <v>348.8613789876302</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1054963065932194</v>
+        <v>0.09483200001219909</v>
       </c>
       <c r="E128" t="n">
-        <v>995.5807851155599</v>
+        <v>348.8279851277669</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1289913207292557</v>
+        <v>0.09678880373636882</v>
       </c>
       <c r="C129" t="n">
-        <v>973.8419392903646</v>
+        <v>343.0243123372396</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09852427011355758</v>
+        <v>0.09107910841703415</v>
       </c>
       <c r="E129" t="n">
-        <v>973.8114776611328</v>
+        <v>343.0185979207357</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.09999004006385803</v>
+        <v>0.119109258055687</v>
       </c>
       <c r="C130" t="n">
-        <v>952.5160725911459</v>
+        <v>337.3497619628906</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1163554197798173</v>
+        <v>0.08263131479422252</v>
       </c>
       <c r="E130" t="n">
-        <v>952.5324350992838</v>
+        <v>337.3132832845052</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1126735160748164</v>
+        <v>0.1212156737844149</v>
       </c>
       <c r="C131" t="n">
-        <v>931.6918131510416</v>
+        <v>331.7614440917969</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1204435918480158</v>
+        <v>0.08507980033755302</v>
       </c>
       <c r="E131" t="n">
-        <v>931.6996103922526</v>
+        <v>331.7253087361653</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2625,16 +2625,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.122842604915301</v>
+        <v>0.1560594563682874</v>
       </c>
       <c r="C132" t="n">
-        <v>911.3140055338541</v>
+        <v>326.3090515136719</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1031474694609642</v>
+        <v>0.1000583184262117</v>
       </c>
       <c r="E132" t="n">
-        <v>911.2943115234375</v>
+        <v>326.2530415852864</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2642,16 +2642,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1642047663529714</v>
+        <v>0.115089513361454</v>
       </c>
       <c r="C133" t="n">
-        <v>891.4070027669271</v>
+        <v>320.8830973307292</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1278631339470545</v>
+        <v>0.08485368235657613</v>
       </c>
       <c r="E133" t="n">
-        <v>891.3706614176432</v>
+        <v>320.8528569539388</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2659,16 +2659,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1853328098853429</v>
+        <v>0.1311912213762601</v>
       </c>
       <c r="C134" t="n">
-        <v>871.9103800455729</v>
+        <v>315.614990234375</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2466958103080591</v>
+        <v>0.07964861982812484</v>
       </c>
       <c r="E134" t="n">
-        <v>871.9717356363932</v>
+        <v>315.5634485880534</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2676,16 +2676,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1247913738091787</v>
+        <v>0.1652039190133413</v>
       </c>
       <c r="C135" t="n">
-        <v>852.7596232096354</v>
+        <v>310.4641825358073</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1269787189861139</v>
+        <v>0.1052815094590187</v>
       </c>
       <c r="E135" t="n">
-        <v>852.7618052164713</v>
+        <v>310.4042663574219</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2693,16 +2693,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1716505959630013</v>
+        <v>0.1293568188945452</v>
       </c>
       <c r="C136" t="n">
-        <v>834.1310628255209</v>
+        <v>305.3404744466146</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1198952166984479</v>
+        <v>0.08766337484121323</v>
       </c>
       <c r="E136" t="n">
-        <v>834.0793100992838</v>
+        <v>305.2987848917643</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2710,16 +2710,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1523100311557452</v>
+        <v>0.09788265327612559</v>
       </c>
       <c r="C137" t="n">
-        <v>815.8423665364584</v>
+        <v>300.3161519368489</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0973414359614253</v>
+        <v>0.0871405911942323</v>
       </c>
       <c r="E137" t="n">
-        <v>815.7873942057291</v>
+        <v>300.3053995768229</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2727,16 +2727,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1200939218203227</v>
+        <v>0.1461203296979268</v>
       </c>
       <c r="C138" t="n">
-        <v>797.9396158854166</v>
+        <v>295.4662679036458</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1453188719848792</v>
+        <v>0.09415769608070453</v>
       </c>
       <c r="E138" t="n">
-        <v>797.96484375</v>
+        <v>295.4143193562825</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2744,16 +2744,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1484682237108549</v>
+        <v>0.1192310353120168</v>
       </c>
       <c r="C139" t="n">
-        <v>780.4889933268229</v>
+        <v>290.6322937011719</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1043844278901815</v>
+        <v>0.0784055261562268</v>
       </c>
       <c r="E139" t="n">
-        <v>780.4448954264323</v>
+        <v>290.5914662679036</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2761,16 +2761,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.13994366923968</v>
+        <v>0.09045828506350517</v>
       </c>
       <c r="C140" t="n">
-        <v>763.3816935221354</v>
+        <v>285.8866984049479</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1013761063416799</v>
+        <v>0.1014715277900298</v>
       </c>
       <c r="E140" t="n">
-        <v>763.3431345621744</v>
+        <v>285.897705078125</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2778,16 +2778,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1616337162752946</v>
+        <v>0.115296038488547</v>
       </c>
       <c r="C141" t="n">
-        <v>746.6797688802084</v>
+        <v>281.2833353678386</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1150243990123272</v>
+        <v>0.07472316796580951</v>
       </c>
       <c r="E141" t="n">
-        <v>746.6331481933594</v>
+        <v>281.2427546183268</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2795,16 +2795,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1293998211622238</v>
+        <v>0.106468640267849</v>
       </c>
       <c r="C142" t="n">
-        <v>730.290771484375</v>
+        <v>276.7331746419271</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1021663310627143</v>
+        <v>0.0847732840726773</v>
       </c>
       <c r="E142" t="n">
-        <v>730.2635498046875</v>
+        <v>276.7114817301432</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2812,16 +2812,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1242595414320628</v>
+        <v>0.1017010609308879</v>
       </c>
       <c r="C143" t="n">
-        <v>714.2901407877604</v>
+        <v>272.2720235188802</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1164493405570586</v>
+        <v>0.09246679271260898</v>
       </c>
       <c r="E143" t="n">
-        <v>714.2823486328125</v>
+        <v>272.2627843221028</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2829,16 +2829,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1136542012294133</v>
+        <v>0.1462422534823418</v>
       </c>
       <c r="C144" t="n">
-        <v>698.6360677083334</v>
+        <v>267.9438781738281</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1479636716345946</v>
+        <v>0.08539226216574509</v>
       </c>
       <c r="E144" t="n">
-        <v>698.6703643798828</v>
+        <v>267.8830235799153</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2846,16 +2846,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1486175010601679</v>
+        <v>0.1138131295641263</v>
       </c>
       <c r="C145" t="n">
-        <v>683.3734741210938</v>
+        <v>263.6201273600261</v>
       </c>
       <c r="D145" t="n">
-        <v>0.09868558123707771</v>
+        <v>0.08117763573924701</v>
       </c>
       <c r="E145" t="n">
-        <v>683.3235321044922</v>
+        <v>263.5874964396159</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2863,16 +2863,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1158064678311348</v>
+        <v>0.1014192501703898</v>
       </c>
       <c r="C146" t="n">
-        <v>668.3849690755209</v>
+        <v>259.3981730143229</v>
       </c>
       <c r="D146" t="n">
-        <v>0.11485638966163</v>
+        <v>0.08554607722908258</v>
       </c>
       <c r="E146" t="n">
-        <v>668.384023030599</v>
+        <v>259.3822962443034</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2880,16 +2880,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1089138761162758</v>
+        <v>0.1258876224358877</v>
       </c>
       <c r="C147" t="n">
-        <v>653.7535196940104</v>
+        <v>255.2921956380208</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1029691640287638</v>
+        <v>0.08083014500637849</v>
       </c>
       <c r="E147" t="n">
-        <v>653.7475636800131</v>
+        <v>255.2471364339193</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2897,16 +2897,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1306628460685412</v>
+        <v>0.1038389826814334</v>
       </c>
       <c r="C148" t="n">
-        <v>639.4765421549479</v>
+        <v>251.2174123128255</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1298434635003408</v>
+        <v>0.08134658650184672</v>
       </c>
       <c r="E148" t="n">
-        <v>639.4757232666016</v>
+        <v>251.1949170430501</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2914,16 +2914,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1214514101545016</v>
+        <v>0.1615245342254639</v>
       </c>
       <c r="C149" t="n">
-        <v>625.486572265625</v>
+        <v>247.2983805338542</v>
       </c>
       <c r="D149" t="n">
-        <v>0.137294864282012</v>
+        <v>0.1016404920568069</v>
       </c>
       <c r="E149" t="n">
-        <v>625.5024108886719</v>
+        <v>247.2384948730469</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2931,16 +2931,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1372268696626028</v>
+        <v>0.09335695952177048</v>
       </c>
       <c r="C150" t="n">
-        <v>611.8331502278646</v>
+        <v>243.3290150960287</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1112145477284988</v>
+        <v>0.1014710466066996</v>
       </c>
       <c r="E150" t="n">
-        <v>611.8071339925131</v>
+        <v>243.3371302286784</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2948,16 +2948,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1254480903347333</v>
+        <v>0.1394944315155347</v>
       </c>
       <c r="C151" t="n">
-        <v>598.4588216145834</v>
+        <v>239.54736328125</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1002847272902727</v>
+        <v>0.08634015545248985</v>
       </c>
       <c r="E151" t="n">
-        <v>598.4336598714193</v>
+        <v>239.4942092895508</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2965,16 +2965,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1940505132079124</v>
+        <v>0.08836052939295769</v>
       </c>
       <c r="C152" t="n">
-        <v>585.4635823567709</v>
+        <v>235.7402598063151</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1249490467210611</v>
+        <v>0.1091643186906974</v>
       </c>
       <c r="E152" t="n">
-        <v>585.3944753011068</v>
+        <v>235.7610638936361</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2982,16 +2982,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1844994351267815</v>
+        <v>0.1677953054507574</v>
       </c>
       <c r="C153" t="n">
-        <v>572.6845499674479</v>
+        <v>232.134775797526</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1299029644578695</v>
+        <v>0.1117249944557746</v>
       </c>
       <c r="E153" t="n">
-        <v>572.6299641927084</v>
+        <v>232.0787048339844</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2999,16 +2999,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.2053104266524315</v>
+        <v>0.1149228364229202</v>
       </c>
       <c r="C154" t="n">
-        <v>560.2267252604166</v>
+        <v>228.4663747151693</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1532679007699092</v>
+        <v>0.08547649222115676</v>
       </c>
       <c r="E154" t="n">
-        <v>560.1746877034506</v>
+        <v>228.4369316101074</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3016,16 +3016,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1567333489656448</v>
+        <v>0.1809577022989591</v>
       </c>
       <c r="C155" t="n">
-        <v>547.9799194335938</v>
+        <v>224.9839324951172</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1078786340852578</v>
+        <v>0.1350951629380385</v>
       </c>
       <c r="E155" t="n">
-        <v>547.9310607910156</v>
+        <v>224.9380734761556</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3033,16 +3033,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1723135337233543</v>
+        <v>0.146145299077034</v>
       </c>
       <c r="C156" t="n">
-        <v>536.0732625325521</v>
+        <v>221.4701690673828</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1284478362649679</v>
+        <v>0.08864930396278699</v>
       </c>
       <c r="E156" t="n">
-        <v>536.0293884277344</v>
+        <v>221.412670135498</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3050,16 +3050,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1529121821125349</v>
+        <v>0.1130999277035395</v>
       </c>
       <c r="C157" t="n">
-        <v>524.4004720052084</v>
+        <v>218.0225880940755</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1268211777011553</v>
+        <v>0.08952510729432106</v>
       </c>
       <c r="E157" t="n">
-        <v>524.3743845621744</v>
+        <v>217.9990081787109</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3067,16 +3067,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.213640292485555</v>
+        <v>0.1298877050479253</v>
       </c>
       <c r="C158" t="n">
-        <v>513.0718587239584</v>
+        <v>214.6885070800781</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1553936625520388</v>
+        <v>0.08087513099114101</v>
       </c>
       <c r="E158" t="n">
-        <v>513.0136108398438</v>
+        <v>214.6395009358724</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3084,16 +3084,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1284297679861387</v>
+        <v>0.0992535725235939</v>
       </c>
       <c r="C159" t="n">
-        <v>501.8567097981771</v>
+        <v>211.3700510660807</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1239394657313824</v>
+        <v>0.08993262238800526</v>
       </c>
       <c r="E159" t="n">
-        <v>501.8522109985352</v>
+        <v>211.3607317606608</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3101,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1355317446092764</v>
+        <v>0.1635697906215986</v>
       </c>
       <c r="C160" t="n">
-        <v>490.9886474609375</v>
+        <v>208.2089385986328</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1885086974749962</v>
+        <v>0.1165295665462812</v>
       </c>
       <c r="E160" t="n">
-        <v>491.041628519694</v>
+        <v>208.1618919372559</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3118,16 +3118,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1719057013591131</v>
+        <v>0.1273546541730563</v>
       </c>
       <c r="C161" t="n">
-        <v>480.3978271484375</v>
+        <v>205.0089619954427</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1213506975521644</v>
+        <v>0.08851363571981589</v>
       </c>
       <c r="E161" t="n">
-        <v>480.3472747802734</v>
+        <v>204.9701182047526</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3135,16 +3135,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1387791807452838</v>
+        <v>0.1380650450785955</v>
       </c>
       <c r="C162" t="n">
-        <v>469.9793294270833</v>
+        <v>201.9157307942708</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1206964800755183</v>
+        <v>0.08954344938198726</v>
       </c>
       <c r="E162" t="n">
-        <v>469.9612452189128</v>
+        <v>201.8672078450521</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3152,16 +3152,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1499607798953851</v>
+        <v>0.1637774581710497</v>
       </c>
       <c r="C163" t="n">
-        <v>459.8410339355469</v>
+        <v>198.895024617513</v>
       </c>
       <c r="D163" t="n">
-        <v>0.115538451820612</v>
+        <v>0.09779934181521337</v>
       </c>
       <c r="E163" t="n">
-        <v>459.8066075642903</v>
+        <v>198.829044342041</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3169,16 +3169,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1396085495750109</v>
+        <v>0.1182887107133865</v>
       </c>
       <c r="C164" t="n">
-        <v>449.9138997395833</v>
+        <v>195.8598785400391</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1056174623469512</v>
+        <v>0.08386417167882125</v>
       </c>
       <c r="E164" t="n">
-        <v>449.8799082438151</v>
+        <v>195.8254585266113</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3186,16 +3186,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1351226021846136</v>
+        <v>0.1034429570039113</v>
       </c>
       <c r="C165" t="n">
-        <v>440.2209370930989</v>
+        <v>192.9125111897787</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1082744350035985</v>
+        <v>0.09374877624213696</v>
       </c>
       <c r="E165" t="n">
-        <v>440.1940892537435</v>
+        <v>192.9028155008952</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3203,16 +3203,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1310776596268018</v>
+        <v>0.1099765797456106</v>
       </c>
       <c r="C166" t="n">
-        <v>430.7514953613281</v>
+        <v>190.0416361490885</v>
       </c>
       <c r="D166" t="n">
-        <v>0.103190661718448</v>
+        <v>0.0888483077287674</v>
       </c>
       <c r="E166" t="n">
-        <v>430.7236124674479</v>
+        <v>190.020502726237</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3220,16 +3220,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1417762661973635</v>
+        <v>0.1443628718455633</v>
       </c>
       <c r="C167" t="n">
-        <v>421.5159200032552</v>
+        <v>187.2530517578125</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1015722192823887</v>
+        <v>0.08953659484783809</v>
       </c>
       <c r="E167" t="n">
-        <v>421.4757181803386</v>
+        <v>187.1982243855794</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3237,16 +3237,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.140961396197478</v>
+        <v>0.1039190068840981</v>
       </c>
       <c r="C168" t="n">
-        <v>412.4821472167969</v>
+        <v>184.4428914388021</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1070622162272533</v>
+        <v>0.09114183795948823</v>
       </c>
       <c r="E168" t="n">
-        <v>412.4482447306315</v>
+        <v>184.4301172892253</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3254,16 +3254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1229891652862231</v>
+        <v>0.1408103058735529</v>
       </c>
       <c r="C169" t="n">
-        <v>403.6396789550781</v>
+        <v>181.7617390950521</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1123336981981993</v>
+        <v>0.09802171401679516</v>
       </c>
       <c r="E169" t="n">
-        <v>403.6290283203125</v>
+        <v>181.7189458211263</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1360878398021062</v>
+        <v>0.1047442828615506</v>
       </c>
       <c r="C170" t="n">
-        <v>395.0327555338542</v>
+        <v>179.0591684977213</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1052659812072913</v>
+        <v>0.08914182273050149</v>
       </c>
       <c r="E170" t="n">
-        <v>395.0019302368164</v>
+        <v>179.0435638427734</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3288,16 +3288,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1998601406812668</v>
+        <v>0.1328535402814547</v>
       </c>
       <c r="C171" t="n">
-        <v>386.6761576334636</v>
+        <v>176.4701944986979</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1323608277986447</v>
+        <v>0.08900605825086434</v>
       </c>
       <c r="E171" t="n">
-        <v>386.608647664388</v>
+        <v>176.4263458251953</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3305,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.2757616713643074</v>
+        <v>0.1282529135545095</v>
       </c>
       <c r="C172" t="n">
-        <v>378.5286254882812</v>
+        <v>173.8981323242188</v>
       </c>
       <c r="D172" t="n">
-        <v>0.230196042607228</v>
+        <v>0.08262015817066033</v>
       </c>
       <c r="E172" t="n">
-        <v>378.4830627441406</v>
+        <v>173.8525021870931</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.145785965025425</v>
+        <v>0.1004941090941429</v>
       </c>
       <c r="C173" t="n">
-        <v>370.3667704264323</v>
+        <v>171.3515625</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1139646923790375</v>
+        <v>0.09184224531054497</v>
       </c>
       <c r="E173" t="n">
-        <v>370.3349431355794</v>
+        <v>171.3429107666016</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1512707670529684</v>
+        <v>0.1117967118819555</v>
       </c>
       <c r="C174" t="n">
-        <v>362.5271606445312</v>
+        <v>168.8904215494792</v>
       </c>
       <c r="D174" t="n">
-        <v>0.104916876492401</v>
+        <v>0.0882039920737346</v>
       </c>
       <c r="E174" t="n">
-        <v>362.4807993570964</v>
+        <v>168.8668314615885</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3356,16 +3356,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.2058769340316454</v>
+        <v>0.1979943364858627</v>
       </c>
       <c r="C175" t="n">
-        <v>354.9187316894531</v>
+        <v>166.5511728922526</v>
       </c>
       <c r="D175" t="n">
-        <v>0.14470657457908</v>
+        <v>0.1211701423550646</v>
       </c>
       <c r="E175" t="n">
-        <v>354.8575668334961</v>
+        <v>166.4743474324544</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.2747887372970581</v>
+        <v>0.1262057647109032</v>
       </c>
       <c r="C176" t="n">
-        <v>347.5039469401042</v>
+        <v>164.1012420654297</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1994700779517492</v>
+        <v>0.08816403460999329</v>
       </c>
       <c r="E176" t="n">
-        <v>347.4286270141602</v>
+        <v>164.0631980895996</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3390,16 +3390,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1611912474036217</v>
+        <v>0.1723653450608253</v>
       </c>
       <c r="C177" t="n">
-        <v>340.0827026367188</v>
+        <v>161.8125915527344</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1175339904924234</v>
+        <v>0.1138320500031114</v>
       </c>
       <c r="E177" t="n">
-        <v>340.0390446980794</v>
+        <v>161.7540613810221</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3407,16 +3407,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1317761540412903</v>
+        <v>0.08601666986942291</v>
       </c>
       <c r="C178" t="n">
-        <v>332.91650390625</v>
+        <v>159.4357198079427</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1057474830498298</v>
+        <v>0.09933060873299837</v>
       </c>
       <c r="E178" t="n">
-        <v>332.8904724121094</v>
+        <v>159.4490305582682</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3424,16 +3424,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.2256940603256226</v>
+        <v>0.1115452125668526</v>
       </c>
       <c r="C179" t="n">
-        <v>326.0429178873698</v>
+        <v>157.213872273763</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1716340091079473</v>
+        <v>0.09498682742317517</v>
       </c>
       <c r="E179" t="n">
-        <v>325.9888661702474</v>
+        <v>157.1973114013672</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3441,16 +3441,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1131096941729387</v>
+        <v>0.1155105407039324</v>
       </c>
       <c r="C180" t="n">
-        <v>319.1298522949219</v>
+        <v>155.0123138427734</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1562210960934559</v>
+        <v>0.08680176486571629</v>
       </c>
       <c r="E180" t="n">
-        <v>319.1729787190755</v>
+        <v>154.9836044311523</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1291173100471497</v>
+        <v>0.1158037905891736</v>
       </c>
       <c r="C181" t="n">
-        <v>312.5040588378906</v>
+        <v>152.8476155598958</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1040152062972387</v>
+        <v>0.08137000352144241</v>
       </c>
       <c r="E181" t="n">
-        <v>312.4789581298828</v>
+        <v>152.8131841023763</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3475,16 +3475,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1768123991787434</v>
+        <v>0.1002887710928917</v>
       </c>
       <c r="C182" t="n">
-        <v>306.0665588378906</v>
+        <v>150.7079722086588</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2430889358123144</v>
+        <v>0.08868062992890675</v>
       </c>
       <c r="E182" t="n">
-        <v>306.1328277587891</v>
+        <v>150.696361541748</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3492,16 +3492,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1800088360905647</v>
+        <v>0.1532051016887029</v>
       </c>
       <c r="C183" t="n">
-        <v>299.7395528157552</v>
+        <v>148.6764475504557</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1301910858601332</v>
+        <v>0.1034487479676803</v>
       </c>
       <c r="E183" t="n">
-        <v>299.6897303263347</v>
+        <v>148.6266873677572</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1784589439630508</v>
+        <v>0.09520906209945679</v>
       </c>
       <c r="C184" t="n">
-        <v>293.5566609700521</v>
+        <v>146.5731862386068</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1267860985050599</v>
+        <v>0.1237968783825636</v>
       </c>
       <c r="E184" t="n">
-        <v>293.5049947102864</v>
+        <v>146.6017786661784</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3526,16 +3526,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.2086340387662252</v>
+        <v>0.1029943252603213</v>
       </c>
       <c r="C185" t="n">
-        <v>287.5517069498698</v>
+        <v>144.5741221110026</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1487544551491737</v>
+        <v>0.09125086385756731</v>
       </c>
       <c r="E185" t="n">
-        <v>287.49183400472</v>
+        <v>144.5623830159505</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3543,16 +3543,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2765241116285324</v>
+        <v>0.1549654379487038</v>
       </c>
       <c r="C186" t="n">
-        <v>281.7284952799479</v>
+        <v>142.6567230224609</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1996766217052937</v>
+        <v>0.09483297045032184</v>
       </c>
       <c r="E186" t="n">
-        <v>281.6516418457031</v>
+        <v>142.5965868631999</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3560,16 +3560,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.2259348953763644</v>
+        <v>0.1098880097270012</v>
       </c>
       <c r="C187" t="n">
-        <v>275.9272562662761</v>
+        <v>140.6784159342448</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1597152507553498</v>
+        <v>0.08883875360091527</v>
       </c>
       <c r="E187" t="n">
-        <v>275.8610382080078</v>
+        <v>140.6573664347331</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3577,16 +3577,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.163935013115406</v>
+        <v>0.1108235195279121</v>
       </c>
       <c r="C188" t="n">
-        <v>270.2523803710938</v>
+        <v>138.781982421875</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1277068667113781</v>
+        <v>0.08293179546793301</v>
       </c>
       <c r="E188" t="n">
-        <v>270.2161458333333</v>
+        <v>138.7540918986003</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3594,16 +3594,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1421043202280998</v>
+        <v>0.1586330210169156</v>
       </c>
       <c r="C189" t="n">
-        <v>264.7508748372396</v>
+        <v>136.967778523763</v>
       </c>
       <c r="D189" t="n">
-        <v>0.111747644841671</v>
+        <v>0.1113450434058905</v>
       </c>
       <c r="E189" t="n">
-        <v>264.7205149332682</v>
+        <v>136.9204889933268</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3611,16 +3611,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1362577627102534</v>
+        <v>0.1101840610305468</v>
       </c>
       <c r="C190" t="n">
-        <v>259.3960266113281</v>
+        <v>135.0921376546224</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1162318711479505</v>
+        <v>0.08304681939383347</v>
       </c>
       <c r="E190" t="n">
-        <v>259.3759943644206</v>
+        <v>135.0649960835775</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3628,16 +3628,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1481733446319898</v>
+        <v>0.1031904394427935</v>
       </c>
       <c r="C191" t="n">
-        <v>254.1857452392578</v>
+        <v>133.2920176188151</v>
       </c>
       <c r="D191" t="n">
-        <v>0.116081136589249</v>
+        <v>0.08367420422534148</v>
       </c>
       <c r="E191" t="n">
-        <v>254.1536496480306</v>
+        <v>133.2725016276042</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3645,16 +3645,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1232689594229062</v>
+        <v>0.1555184721946716</v>
       </c>
       <c r="C192" t="n">
-        <v>249.0635477701823</v>
+        <v>131.5842030843099</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1275390448669592</v>
+        <v>0.09495898149907589</v>
       </c>
       <c r="E192" t="n">
-        <v>249.0678176879883</v>
+        <v>131.5236396789551</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3662,16 +3662,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1405037964383761</v>
+        <v>0.1289743731419245</v>
       </c>
       <c r="C193" t="n">
-        <v>244.1056823730469</v>
+        <v>129.8302510579427</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1108312904834747</v>
+        <v>0.09154738982518514</v>
       </c>
       <c r="E193" t="n">
-        <v>244.0760103861491</v>
+        <v>129.7928276062012</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3679,16 +3679,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1767913649479548</v>
+        <v>0.09407113492488861</v>
       </c>
       <c r="C194" t="n">
-        <v>239.2857666015625</v>
+        <v>128.0998382568359</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1252971086651087</v>
+        <v>0.09730918270846207</v>
       </c>
       <c r="E194" t="n">
-        <v>239.2342745463053</v>
+        <v>128.1030807495117</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3696,16 +3696,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1516482482353846</v>
+        <v>0.2240817323327065</v>
       </c>
       <c r="C195" t="n">
-        <v>234.5211690266927</v>
+        <v>126.5658874511719</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1071689749757449</v>
+        <v>0.1567075798908869</v>
       </c>
       <c r="E195" t="n">
-        <v>234.476692199707</v>
+        <v>126.4985135396322</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3713,16 +3713,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1862869113683701</v>
+        <v>0.09638799478610356</v>
       </c>
       <c r="C196" t="n">
-        <v>229.9305521647135</v>
+        <v>124.8063125610352</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1263679144904017</v>
+        <v>0.1036103603740533</v>
       </c>
       <c r="E196" t="n">
-        <v>229.8706321716309</v>
+        <v>124.8135331471761</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3730,16 +3730,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1344435103237629</v>
+        <v>0.1491730958223343</v>
       </c>
       <c r="C197" t="n">
-        <v>225.3651224772135</v>
+        <v>123.256472269694</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1907600077490012</v>
+        <v>0.09498712296287219</v>
       </c>
       <c r="E197" t="n">
-        <v>225.4214452107747</v>
+        <v>123.2022864023844</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3747,16 +3747,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1328453943133354</v>
+        <v>0.1349915092190107</v>
       </c>
       <c r="C198" t="n">
-        <v>220.9588775634766</v>
+        <v>121.6686884562175</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1356336952497562</v>
+        <v>0.09101290131608646</v>
       </c>
       <c r="E198" t="n">
-        <v>220.9616661071777</v>
+        <v>121.6247119903564</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3764,16 +3764,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1590138574441274</v>
+        <v>0.1575526545445124</v>
       </c>
       <c r="C199" t="n">
-        <v>216.6857147216797</v>
+        <v>120.1461385091146</v>
       </c>
       <c r="D199" t="n">
-        <v>0.113583500807484</v>
+        <v>0.108372430006663</v>
       </c>
       <c r="E199" t="n">
-        <v>216.6402867635091</v>
+        <v>120.0969587961833</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3781,16 +3781,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.146661601960659</v>
+        <v>0.1544539133707682</v>
       </c>
       <c r="C200" t="n">
-        <v>212.4786173502604</v>
+        <v>118.6269810994466</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1163084879517555</v>
+        <v>0.1016338393092155</v>
       </c>
       <c r="E200" t="n">
-        <v>212.4482650756836</v>
+        <v>118.5741608937581</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.2410640890399615</v>
+        <v>0.0889680137236913</v>
       </c>
       <c r="C201" t="n">
-        <v>208.4778645833333</v>
+        <v>117.0736185709635</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1660186120619377</v>
+        <v>0.1604989990592003</v>
       </c>
       <c r="E201" t="n">
-        <v>208.4028180440267</v>
+        <v>117.1451485951741</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3842,7 @@
         <v>0.1192333333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1818171143531799</v>
+        <v>0.512444019317627</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>0.1490888888888889</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1515710651874542</v>
+        <v>0.5027994513511658</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>0.1775633333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3017697334289551</v>
+        <v>0.465379923582077</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>0.1945238095238095</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1352823078632355</v>
+        <v>0.3904238939285278</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>0.2202944444444445</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1838996112346649</v>
+        <v>0.4282263219356537</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>0.2505045454545454</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5398855209350586</v>
+        <v>0.5505359768867493</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>0.277601282051282</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3615258932113647</v>
+        <v>0.3599084317684174</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>0.3046344444444445</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1079281345009804</v>
+        <v>0.4658010005950928</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>0.3257166666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1621660590171814</v>
+        <v>0.4887232780456543</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>0.3341956140350877</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2664020955562592</v>
+        <v>0.4228668212890625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>0.3416626984126985</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1324780285358429</v>
+        <v>0.4546042382717133</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>0.345522463768116</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07880533486604691</v>
+        <v>0.4604902863502502</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>0.3481466666666668</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1550439298152924</v>
+        <v>0.430667519569397</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>0.3549956790123457</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1629309803247452</v>
+        <v>0.4243881106376648</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>0.363182183908046</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1132509186863899</v>
+        <v>0.4537787139415741</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>0.3764873563218391</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2753986418247223</v>
+        <v>0.5307570695877075</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>0.3897994252873563</v>
       </c>
       <c r="B18" t="n">
-        <v>0.139961764216423</v>
+        <v>0.5142053365707397</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>0.4014954022988506</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150313138961792</v>
+        <v>0.4987108409404755</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>0.4092097701149425</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2968882620334625</v>
+        <v>0.5374938249588013</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>0.4150586206896552</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3805830180644989</v>
+        <v>0.6047469973564148</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>0.4200925287356322</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1733883917331696</v>
+        <v>0.5989639163017273</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>0.4210741379310345</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4173516631126404</v>
+        <v>0.5275396704673767</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>0.4212034482758621</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2841350436210632</v>
+        <v>0.5154434442520142</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>0.4191971264367816</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3415307402610779</v>
+        <v>0.5225305557250977</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>0.4154270114942529</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4774583876132965</v>
+        <v>0.4758633971214294</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>0.4107833333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3395915627479553</v>
+        <v>0.5244590044021606</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>0.4077212643678161</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1531626880168915</v>
+        <v>0.4470605850219727</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>0.4036827586206897</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3758100271224976</v>
+        <v>0.391997367143631</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>0.398082183908046</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06984715163707733</v>
+        <v>0.3714337646961212</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>0.3926948275862069</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02759233117103577</v>
+        <v>0.4621601700782776</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>0.3866890804597701</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3619967103004456</v>
+        <v>0.4094860255718231</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>0.3810270114942528</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3226334154605865</v>
+        <v>0.3714741766452789</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>0.37675</v>
       </c>
       <c r="B34" t="n">
-        <v>0.258768767118454</v>
+        <v>0.3718328773975372</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>0.3732701149425287</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1000314950942993</v>
+        <v>0.5021578669548035</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>0.3685293103448276</v>
       </c>
       <c r="B36" t="n">
-        <v>0.350250244140625</v>
+        <v>0.3832431733608246</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>0.36195</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3821181058883667</v>
+        <v>0.5572594404220581</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>0.3557885057471264</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4972405433654785</v>
+        <v>0.4530521631240845</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>0.3512775862068965</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09874233603477478</v>
+        <v>0.3927254676818848</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>0.3469396551724138</v>
       </c>
       <c r="B40" t="n">
-        <v>0.316092848777771</v>
+        <v>0.4947909116744995</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>0.3414729885057471</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2651263475418091</v>
+        <v>0.5033401846885681</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>0.3355672413793104</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2034457921981812</v>
+        <v>0.4733325242996216</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>0.3307109195402299</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1710414290428162</v>
+        <v>0.3600494563579559</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>0.3262729885057471</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08616465330123901</v>
+        <v>0.4862657785415649</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>0.3219293103448275</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1593343913555145</v>
+        <v>0.4757164120674133</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>0.3185563218390804</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2715255916118622</v>
+        <v>0.5292957425117493</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>0.3134724137931034</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1120096892118454</v>
+        <v>0.397381454706192</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>0.308530459770115</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4157422780990601</v>
+        <v>0.4861500561237335</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>0.3077706896551724</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3805764615535736</v>
+        <v>0.4295104742050171</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>0.3085097701149425</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1232827827334404</v>
+        <v>0.442739337682724</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>0.311433908045977</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3387994468212128</v>
+        <v>0.4581333994865417</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>0.3189</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3063358664512634</v>
+        <v>0.4267711043357849</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>0.327998275862069</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3109322488307953</v>
+        <v>0.3904611766338348</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>0.3391028735632184</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0674973726272583</v>
+        <v>0.4492614269256592</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>0.3508040229885057</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3821180760860443</v>
+        <v>0.4630197584629059</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>0.3632316091954023</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1075694337487221</v>
+        <v>0.4449016153812408</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>0.3738252873563218</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4322045147418976</v>
+        <v>0.5519558787345886</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>0.3824913793103448</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1030521243810654</v>
+        <v>0.4907512068748474</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>0.3894775862068965</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09374061226844788</v>
+        <v>0.4353911578655243</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>0.3941091954022988</v>
       </c>
       <c r="B60" t="n">
-        <v>0.381599098443985</v>
+        <v>0.3982578814029694</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>0.3961287356321839</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1276885271072388</v>
+        <v>0.4591037929058075</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>0.3981137931034483</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3040050566196442</v>
+        <v>0.4175395965576172</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>0.4000195402298851</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01231702417135239</v>
+        <v>0.4801108241081238</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>0.4024931034482758</v>
       </c>
       <c r="B64" t="n">
-        <v>0.00267038494348526</v>
+        <v>0.440258651971817</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>0.4048022988505747</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3546232879161835</v>
+        <v>0.4603249430656433</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>0.4094201149425287</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1032762601971626</v>
+        <v>0.4121831059455872</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>0.4150580459770114</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1064039617776871</v>
+        <v>0.4439505934715271</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>0.419585632183908</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2127067148685455</v>
+        <v>0.3963964879512787</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>0.4244086206896551</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1365406811237335</v>
+        <v>0.46943399310112</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>0.4298201149425287</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06395316869020462</v>
+        <v>0.3904977142810822</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>0.4349988505747126</v>
       </c>
       <c r="B71" t="n">
-        <v>0.102270171046257</v>
+        <v>0.4266395270824432</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>0.4376879310344827</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3192194998264313</v>
+        <v>0.4471873044967651</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>0.4388293103448275</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4285381436347961</v>
+        <v>0.4134361743927002</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>0.4388114942528736</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4263841211795807</v>
+        <v>0.4362066090106964</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>0.4371045977011494</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04681607335805893</v>
+        <v>0.4896264672279358</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>0.4379580459770114</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1836139857769012</v>
+        <v>0.4797935485839844</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>0.4383160919540229</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1804414093494415</v>
+        <v>0.5350799560546875</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>0.4376689655172414</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4236172139644623</v>
+        <v>0.510802686214447</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>0.4391545977011494</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5073686242103577</v>
+        <v>0.4947257339954376</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>0.4421057471264367</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4285992980003357</v>
+        <v>0.5999824404716492</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>0.4450890804597701</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2956179082393646</v>
+        <v>0.5677825212478638</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>0.4464643678160919</v>
       </c>
       <c r="B82" t="n">
-        <v>0.274142324924469</v>
+        <v>0.609444260597229</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>0.447966091954023</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4691673815250397</v>
+        <v>0.6402049660682678</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>0.449382183908046</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4086931645870209</v>
+        <v>0.6305888295173645</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>0.4530155172413792</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4557912349700928</v>
+        <v>0.5834794044494629</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>0.4590120689655172</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4367924630641937</v>
+        <v>0.4805580675601959</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>0.4668396551724138</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1879012882709503</v>
+        <v>0.4587800204753876</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>0.4764936781609196</v>
       </c>
       <c r="B88" t="n">
-        <v>0.08381279557943344</v>
+        <v>0.459534078836441</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>0.48935</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4170224368572235</v>
+        <v>0.5186843276023865</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>0.5043419540229885</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1510129272937775</v>
+        <v>0.4937009513378143</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>0.5202988505747126</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1918183565139771</v>
+        <v>0.4915911555290222</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>0.5346902298850574</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4638127386569977</v>
+        <v>0.4906109273433685</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>0.5464528735632185</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5374236106872559</v>
+        <v>0.5742301940917969</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>0.5563712643678161</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4014261364936829</v>
+        <v>0.541664719581604</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>0.5641028735632183</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5648803114891052</v>
+        <v>0.5751330852508545</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>0.5722787356321839</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4572354853153229</v>
+        <v>0.7060989141464233</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>0.578233908045977</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2579291760921478</v>
+        <v>0.6142110228538513</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>0.5825206896551723</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4098609685897827</v>
+        <v>0.5062299966812134</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>0.5899620689655172</v>
       </c>
       <c r="B99" t="n">
-        <v>0.524053156375885</v>
+        <v>0.6587196588516235</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>0.5981896551724138</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4958714246749878</v>
+        <v>0.5980094075202942</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>0.6104068965517243</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5113358497619629</v>
+        <v>0.8551477789878845</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>0.6255580459770115</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4313921928405762</v>
+        <v>0.7886611223220825</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>0.6424011494252875</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5806485414505005</v>
+        <v>0.7000617980957031</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>0.661157471264368</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3278555572032928</v>
+        <v>0.7708720564842224</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>0.6803965517241379</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3838608264923096</v>
+        <v>0.8643057942390442</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>0.701371264367816</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6702824831008911</v>
+        <v>0.8577778339385986</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>0.722021264367816</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2783023118972778</v>
+        <v>0.6809331774711609</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>0.7407643678160918</v>
       </c>
       <c r="B108" t="n">
-        <v>0.567550003528595</v>
+        <v>0.6584407091140747</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>0.7568729885057469</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2328744828701019</v>
+        <v>0.7796753644943237</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>0.7710499999999998</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2392877042293549</v>
+        <v>0.7478269338607788</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>0.7847103448275861</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5140788555145264</v>
+        <v>0.7751337289810181</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>0.7973994252873561</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3101474642753601</v>
+        <v>0.6876855492591858</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>0.8095224137931031</v>
       </c>
       <c r="B113" t="n">
-        <v>0.342594712972641</v>
+        <v>0.6652763485908508</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>0.8189488505747122</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4704161286354065</v>
+        <v>0.6598737835884094</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>0.826033333333333</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4417365193367004</v>
+        <v>0.6065472364425659</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>0.8325080459770111</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4083073139190674</v>
+        <v>0.6660950779914856</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>0.8392218390804594</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1676355600357056</v>
+        <v>0.6298736333847046</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>0.8445787356321836</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3021760582923889</v>
+        <v>0.5593687891960144</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>0.8501488505747122</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3543829917907715</v>
+        <v>0.6822310090065002</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>0.8545712643678158</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3314180672168732</v>
+        <v>0.7455089092254639</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>0.8612999999999997</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3120497167110443</v>
+        <v>0.7885220646858215</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>0.8701563218390803</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5368848443031311</v>
+        <v>0.9194734692573547</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>0.8814637931034481</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4485742151737213</v>
+        <v>0.5960081219673157</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>0.8945580459770115</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2989055216312408</v>
+        <v>0.9245247840881348</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>0.9064333333333333</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5425727367401123</v>
+        <v>0.9994775652885437</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>0.9214310344827588</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4869047105312347</v>
+        <v>0.9571837782859802</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>0.9378908045977012</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7276768088340759</v>
+        <v>1.013349771499634</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>0.9507597701149425</v>
       </c>
       <c r="B128" t="n">
-        <v>0.696402907371521</v>
+        <v>1.037967920303345</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>0.9623103448275863</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3966878056526184</v>
+        <v>0.8952609896659851</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>0.9707614942528736</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5355775356292725</v>
+        <v>0.9600703120231628</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>0.9771229885057473</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8069232702255249</v>
+        <v>0.8236607909202576</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>0.9816954022988508</v>
       </c>
       <c r="B132" t="n">
-        <v>0.513822078704834</v>
+        <v>0.9997119903564453</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>0.9845718390804601</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7462020516395569</v>
+        <v>0.9520637392997742</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>0.9855333333333337</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8062611222267151</v>
+        <v>0.8630532622337341</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>0.9854954022988509</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9008333683013916</v>
+        <v>0.8710809350013733</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>0.9854574712643681</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3730764091014862</v>
+        <v>0.8575817346572876</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>0.985457471264368</v>
       </c>
       <c r="B137" t="n">
-        <v>0.768842875957489</v>
+        <v>0.9507500529289246</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>0.9850586206896553</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8541431427001953</v>
+        <v>0.9082840085029602</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>0.9846597701149429</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6711229681968689</v>
+        <v>1.045070648193359</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>0.9842609195402302</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7667050361633301</v>
+        <v>1.025166273117065</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>0.9838620689655176</v>
       </c>
       <c r="B141" t="n">
-        <v>0.471477210521698</v>
+        <v>0.8436547517776489</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>0.9834632183908051</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5925911068916321</v>
+        <v>0.8703476190567017</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>0.9823982758620694</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5712923407554626</v>
+        <v>0.9499436020851135</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>0.9790908045977016</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8956668376922607</v>
+        <v>1.03130316734314</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>0.9756959770114946</v>
       </c>
       <c r="B145" t="n">
-        <v>0.7711167335510254</v>
+        <v>1.269334673881531</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>0.9716477011494256</v>
       </c>
       <c r="B146" t="n">
-        <v>0.7812212109565735</v>
+        <v>0.8824819922447205</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>0.9681885057471267</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4975894689559937</v>
+        <v>0.8308944702148438</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>0.9650545977011497</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8314697742462158</v>
+        <v>1.126040935516357</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>0.9611781609195404</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6189403533935547</v>
+        <v>1.090243577957153</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>0.9573017241379311</v>
       </c>
       <c r="B150" t="n">
-        <v>0.777241587638855</v>
+        <v>1.023836851119995</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>0.9562775862068966</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4613585472106934</v>
+        <v>0.9924132227897644</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>0.9555758620689656</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7130938172340393</v>
+        <v>1.065980076789856</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>0.9560137931034484</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7535004019737244</v>
+        <v>0.8525158166885376</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>0.956451724137931</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6553775668144226</v>
+        <v>1.000022172927856</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>0.9559201149425287</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7266900539398193</v>
+        <v>0.9490439295768738</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>0.9565091954022986</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8028728365898132</v>
+        <v>0.9069580435752869</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>0.9572505747126434</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5615448355674744</v>
+        <v>0.9542925357818604</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>0.9577637931034481</v>
       </c>
       <c r="B158" t="n">
-        <v>0.6715022325515747</v>
+        <v>0.898876965045929</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>0.9582770114942526</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7315425276756287</v>
+        <v>1.139377117156982</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>0.9587902298850571</v>
       </c>
       <c r="B160" t="n">
-        <v>0.6251569986343384</v>
+        <v>0.9880555272102356</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>0.9593034482758618</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7224099636077881</v>
+        <v>0.9583995342254639</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>0.9598166666666663</v>
       </c>
       <c r="B162" t="n">
-        <v>0.433139443397522</v>
+        <v>1.029774069786072</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>0.9601017241379307</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3656870126724243</v>
+        <v>0.9780848026275635</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>0.9601396551724134</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9101361036300659</v>
+        <v>0.9165604710578918</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>0.9601775862068961</v>
       </c>
       <c r="B165" t="n">
-        <v>0.6788593530654907</v>
+        <v>1.045057654380798</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>0.960177586206896</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4498383104801178</v>
+        <v>1.037591218948364</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>0.9605764367816085</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6831706762313843</v>
+        <v>1.085258722305298</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>0.9609752873563213</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5023505091667175</v>
+        <v>0.9306686520576477</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>0.9613741379310339</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5743501782417297</v>
+        <v>0.9565407633781433</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>0.9617729885057467</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8443569540977478</v>
+        <v>0.9724416136741638</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>0.9621718390804592</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6214978098869324</v>
+        <v>1.07590115070343</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>0.9632367816091949</v>
       </c>
       <c r="B172" t="n">
-        <v>0.6299330592155457</v>
+        <v>0.9266036152839661</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>0.9665442528735627</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6130586862564087</v>
+        <v>1.114981174468994</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>0.9699390804597696</v>
       </c>
       <c r="B174" t="n">
-        <v>0.786913275718689</v>
+        <v>1.011304140090942</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>0.9739873563218386</v>
       </c>
       <c r="B175" t="n">
-        <v>0.441140204668045</v>
+        <v>0.9033442139625549</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>0.9780735632183903</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5587030649185181</v>
+        <v>0.9262760281562805</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>0.9821005747126432</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5463282465934753</v>
+        <v>0.8087963461875916</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>0.9867942528735628</v>
       </c>
       <c r="B178" t="n">
-        <v>0.7310089468955994</v>
+        <v>0.8829074501991272</v>
       </c>
     </row>
   </sheetData>
